--- a/obfuscated/Offenses.xlsx
+++ b/obfuscated/Offenses.xlsx
@@ -681,46 +681,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>784.27</v>
+        <v>597.49</v>
       </c>
       <c r="D7" t="n">
-        <v>13758.31</v>
+        <v>11978.65</v>
       </c>
       <c r="E7" t="n">
-        <v>707.26</v>
+        <v>614.86</v>
       </c>
       <c r="F7" t="n">
-        <v>250.63</v>
+        <v>302.86</v>
       </c>
       <c r="G7" t="n">
-        <v>17592.58</v>
+        <v>16892.34</v>
       </c>
       <c r="H7" t="n">
-        <v>9147.43</v>
+        <v>7986.3</v>
       </c>
       <c r="I7" t="n">
-        <v>6107.93</v>
+        <v>5867.52</v>
       </c>
       <c r="J7" t="n">
-        <v>725594.89</v>
+        <v>918590.0699999999</v>
       </c>
       <c r="K7" t="n">
-        <v>12599.46</v>
+        <v>17042.63</v>
       </c>
       <c r="L7" t="n">
-        <v>5243.5</v>
+        <v>5202.32</v>
       </c>
       <c r="M7" t="n">
-        <v>194968.27</v>
+        <v>229067.69</v>
       </c>
       <c r="N7" t="n">
-        <v>6163.01</v>
+        <v>6852.31</v>
       </c>
       <c r="O7" t="n">
-        <v>116547.19</v>
+        <v>91337.67</v>
       </c>
       <c r="P7" t="n">
-        <v>110.61</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="8">
@@ -738,43 +738,43 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>307.39</v>
+        <v>287.82</v>
       </c>
       <c r="E8" t="n">
-        <v>5.3</v>
+        <v>5.52</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>98.8</v>
+        <v>122.57</v>
       </c>
       <c r="H8" t="n">
-        <v>56.97</v>
+        <v>56.33</v>
       </c>
       <c r="I8" t="n">
-        <v>19.85</v>
+        <v>18.71</v>
       </c>
       <c r="J8" t="n">
-        <v>16588.88</v>
+        <v>13753.22</v>
       </c>
       <c r="K8" t="n">
-        <v>162.66</v>
+        <v>217.09</v>
       </c>
       <c r="L8" t="n">
-        <v>113.15</v>
+        <v>119.8</v>
       </c>
       <c r="M8" t="n">
-        <v>1978.72</v>
+        <v>2135.79</v>
       </c>
       <c r="N8" t="n">
-        <v>121.3</v>
+        <v>105.19</v>
       </c>
       <c r="O8" t="n">
-        <v>1516.53</v>
+        <v>1377.81</v>
       </c>
       <c r="P8" t="n">
-        <v>114.08</v>
+        <v>105.39</v>
       </c>
     </row>
     <row r="9">
@@ -792,43 +792,43 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.92</v>
+        <v>5.17</v>
       </c>
       <c r="E9" t="n">
-        <v>3.11</v>
+        <v>3.49</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.2</v>
+        <v>15.53</v>
       </c>
       <c r="H9" t="n">
-        <v>39.41</v>
+        <v>43.44</v>
       </c>
       <c r="I9" t="n">
-        <v>3.58</v>
+        <v>2.47</v>
       </c>
       <c r="J9" t="n">
-        <v>1778.9</v>
+        <v>1985.44</v>
       </c>
       <c r="K9" t="n">
-        <v>20.08</v>
+        <v>24.14</v>
       </c>
       <c r="L9" t="n">
-        <v>19.14</v>
+        <v>19.09</v>
       </c>
       <c r="M9" t="n">
-        <v>324.04</v>
+        <v>322.28</v>
       </c>
       <c r="N9" t="n">
-        <v>12.88</v>
+        <v>10.09</v>
       </c>
       <c r="O9" t="n">
-        <v>547.8099999999999</v>
+        <v>481.57</v>
       </c>
       <c r="P9" t="n">
-        <v>90.31999999999999</v>
+        <v>112.22</v>
       </c>
     </row>
     <row r="10">
@@ -843,46 +843,46 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.99</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>727.96</v>
+        <v>773.8</v>
       </c>
       <c r="E10" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="F10" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>520.47</v>
+        <v>469.93</v>
       </c>
       <c r="H10" t="n">
-        <v>91.11</v>
+        <v>126.83</v>
       </c>
       <c r="I10" t="n">
-        <v>5.14</v>
+        <v>6.38</v>
       </c>
       <c r="J10" t="n">
-        <v>16938.65</v>
+        <v>19467.25</v>
       </c>
       <c r="K10" t="n">
-        <v>155.38</v>
+        <v>142.64</v>
       </c>
       <c r="L10" t="n">
-        <v>91.66</v>
+        <v>82.95</v>
       </c>
       <c r="M10" t="n">
-        <v>4559.87</v>
+        <v>4748.88</v>
       </c>
       <c r="N10" t="n">
-        <v>60.89</v>
+        <v>80.03</v>
       </c>
       <c r="O10" t="n">
-        <v>1950.65</v>
+        <v>2327.46</v>
       </c>
       <c r="P10" t="n">
-        <v>102.11</v>
+        <v>118.84</v>
       </c>
     </row>
     <row r="11">
@@ -897,46 +897,46 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.08</v>
+        <v>17.99</v>
       </c>
       <c r="D11" t="n">
-        <v>58.37</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>174.78</v>
+        <v>201.15</v>
       </c>
       <c r="H11" t="n">
-        <v>29.29</v>
+        <v>30.3</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8401.120000000001</v>
+        <v>8396.790000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>115.62</v>
+        <v>111.76</v>
       </c>
       <c r="L11" t="n">
-        <v>39.19</v>
+        <v>43.04</v>
       </c>
       <c r="M11" t="n">
-        <v>1074.93</v>
+        <v>876.78</v>
       </c>
       <c r="N11" t="n">
-        <v>49.19</v>
+        <v>37.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1097.69</v>
+        <v>1274.11</v>
       </c>
       <c r="P11" t="n">
-        <v>93.23</v>
+        <v>115.47</v>
       </c>
     </row>
     <row r="12">
@@ -951,46 +951,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>134.65</v>
+        <v>131.33</v>
       </c>
       <c r="D12" t="n">
-        <v>1388.3</v>
+        <v>1314.25</v>
       </c>
       <c r="E12" t="n">
-        <v>141.8</v>
+        <v>117.77</v>
       </c>
       <c r="F12" t="n">
-        <v>65.34999999999999</v>
+        <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>2045.94</v>
+        <v>1814.24</v>
       </c>
       <c r="H12" t="n">
-        <v>2377.3</v>
+        <v>2306.93</v>
       </c>
       <c r="I12" t="n">
-        <v>409.37</v>
+        <v>395.47</v>
       </c>
       <c r="J12" t="n">
-        <v>100777.18</v>
+        <v>115638.22</v>
       </c>
       <c r="K12" t="n">
-        <v>1734.86</v>
+        <v>1506.21</v>
       </c>
       <c r="L12" t="n">
-        <v>784.61</v>
+        <v>965.83</v>
       </c>
       <c r="M12" t="n">
-        <v>50857.49</v>
+        <v>42344.78</v>
       </c>
       <c r="N12" t="n">
-        <v>2102.7</v>
+        <v>2064.62</v>
       </c>
       <c r="O12" t="n">
-        <v>11933.85</v>
+        <v>11145.8</v>
       </c>
       <c r="P12" t="n">
-        <v>84.34999999999999</v>
+        <v>88.37</v>
       </c>
     </row>
     <row r="13">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.55</v>
+        <v>2.93</v>
       </c>
       <c r="D13" t="n">
-        <v>87.93000000000001</v>
+        <v>90.45</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1017,34 +1017,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.91</v>
+        <v>102.46</v>
       </c>
       <c r="H13" t="n">
-        <v>47.98</v>
+        <v>51.95</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7390.05</v>
+        <v>8104.68</v>
       </c>
       <c r="K13" t="n">
-        <v>143.45</v>
+        <v>101.33</v>
       </c>
       <c r="L13" t="n">
-        <v>7.93</v>
+        <v>8.59</v>
       </c>
       <c r="M13" t="n">
-        <v>1007.66</v>
+        <v>1125.99</v>
       </c>
       <c r="N13" t="n">
-        <v>32.19</v>
+        <v>37.99</v>
       </c>
       <c r="O13" t="n">
-        <v>1852.81</v>
+        <v>2250.64</v>
       </c>
       <c r="P13" t="n">
-        <v>89.06999999999999</v>
+        <v>114.45</v>
       </c>
     </row>
     <row r="14">
@@ -1059,46 +1059,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.46</v>
+        <v>2.41</v>
       </c>
       <c r="D14" t="n">
-        <v>176.61</v>
+        <v>163.4</v>
       </c>
       <c r="E14" t="n">
-        <v>7.34</v>
+        <v>7.29</v>
       </c>
       <c r="F14" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="G14" t="n">
-        <v>77.34999999999999</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>191.95</v>
+        <v>204.62</v>
       </c>
       <c r="I14" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="J14" t="n">
-        <v>12409</v>
+        <v>15104.92</v>
       </c>
       <c r="K14" t="n">
-        <v>96.81</v>
+        <v>96.75</v>
       </c>
       <c r="L14" t="n">
-        <v>26.49</v>
+        <v>28.9</v>
       </c>
       <c r="M14" t="n">
-        <v>2468.79</v>
+        <v>1831.97</v>
       </c>
       <c r="N14" t="n">
-        <v>62.73</v>
+        <v>46.13</v>
       </c>
       <c r="O14" t="n">
-        <v>1337.87</v>
+        <v>1035.17</v>
       </c>
       <c r="P14" t="n">
-        <v>104.38</v>
+        <v>103.12</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7.16</v>
+        <v>6.06</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.050000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>722.03</v>
+        <v>903.01</v>
       </c>
       <c r="K15" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>506.56</v>
+        <v>481.64</v>
       </c>
       <c r="N15" t="n">
-        <v>5.73</v>
+        <v>7.53</v>
       </c>
       <c r="O15" t="n">
-        <v>243.55</v>
+        <v>217.1</v>
       </c>
       <c r="P15" t="n">
-        <v>88.59</v>
+        <v>85.84999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.94</v>
+        <v>10.33</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1179,34 +1179,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>23.75</v>
+        <v>17.37</v>
       </c>
       <c r="H16" t="n">
-        <v>17.68</v>
+        <v>18.07</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4390.86</v>
+        <v>4871.19</v>
       </c>
       <c r="K16" t="n">
-        <v>28.69</v>
+        <v>31.1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="M16" t="n">
-        <v>958</v>
+        <v>1208.65</v>
       </c>
       <c r="N16" t="n">
-        <v>14.02</v>
+        <v>14.35</v>
       </c>
       <c r="O16" t="n">
-        <v>266.56</v>
+        <v>211.46</v>
       </c>
       <c r="P16" t="n">
-        <v>114.17</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="17">
@@ -1221,46 +1221,46 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44.75</v>
+        <v>42.33</v>
       </c>
       <c r="D17" t="n">
-        <v>57.48</v>
+        <v>41.6</v>
       </c>
       <c r="E17" t="n">
-        <v>6.25</v>
+        <v>6.65</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>83.61</v>
+        <v>105.42</v>
       </c>
       <c r="H17" t="n">
-        <v>6.67</v>
+        <v>5.16</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>8493.290000000001</v>
+        <v>9347.950000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>87</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>21.69</v>
+        <v>25.79</v>
       </c>
       <c r="M17" t="n">
-        <v>4296.47</v>
+        <v>3469.97</v>
       </c>
       <c r="N17" t="n">
-        <v>125.63</v>
+        <v>114.86</v>
       </c>
       <c r="O17" t="n">
-        <v>4214.51</v>
+        <v>3748.22</v>
       </c>
       <c r="P17" t="n">
-        <v>117.71</v>
+        <v>85.97</v>
       </c>
     </row>
     <row r="18">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49.74</v>
+        <v>48.51</v>
       </c>
       <c r="D18" t="n">
-        <v>1847.46</v>
+        <v>2141.31</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1287,34 +1287,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.43</v>
+        <v>88.63</v>
       </c>
       <c r="H18" t="n">
-        <v>43.05</v>
+        <v>32.06</v>
       </c>
       <c r="I18" t="n">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="J18" t="n">
-        <v>49156.54</v>
+        <v>55667.01</v>
       </c>
       <c r="K18" t="n">
-        <v>82.93000000000001</v>
+        <v>76.47</v>
       </c>
       <c r="L18" t="n">
-        <v>33.26</v>
+        <v>31.39</v>
       </c>
       <c r="M18" t="n">
-        <v>10883.84</v>
+        <v>12461.99</v>
       </c>
       <c r="N18" t="n">
-        <v>165.71</v>
+        <v>232.41</v>
       </c>
       <c r="O18" t="n">
-        <v>2341.48</v>
+        <v>2698.24</v>
       </c>
       <c r="P18" t="n">
-        <v>114.46</v>
+        <v>106.91</v>
       </c>
     </row>
     <row r="19">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.92</v>
+        <v>3.44</v>
       </c>
       <c r="D19" t="n">
-        <v>149.85</v>
+        <v>143.16</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.88</v>
+        <v>14.22</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.970000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="M19" t="n">
-        <v>486.13</v>
+        <v>522.52</v>
       </c>
       <c r="N19" t="n">
-        <v>4.79</v>
+        <v>3.93</v>
       </c>
       <c r="O19" t="n">
-        <v>299.46</v>
+        <v>292.71</v>
       </c>
       <c r="P19" t="n">
-        <v>118.89</v>
+        <v>118.1</v>
       </c>
     </row>
     <row r="20">
@@ -1383,46 +1383,46 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.03</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>50.11</v>
+        <v>43.74</v>
       </c>
       <c r="E20" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="F20" t="n">
-        <v>3.07</v>
+        <v>2.71</v>
       </c>
       <c r="G20" t="n">
-        <v>159.58</v>
+        <v>176.33</v>
       </c>
       <c r="H20" t="n">
-        <v>36.36</v>
+        <v>30.3</v>
       </c>
       <c r="I20" t="n">
         <v>2.66</v>
       </c>
       <c r="J20" t="n">
-        <v>2074.87</v>
+        <v>2431.96</v>
       </c>
       <c r="K20" t="n">
-        <v>44.35</v>
+        <v>50.25</v>
       </c>
       <c r="L20" t="n">
-        <v>32.33</v>
+        <v>22.52</v>
       </c>
       <c r="M20" t="n">
-        <v>1068.26</v>
+        <v>882.46</v>
       </c>
       <c r="N20" t="n">
-        <v>19.31</v>
+        <v>21.25</v>
       </c>
       <c r="O20" t="n">
-        <v>843.9</v>
+        <v>597.79</v>
       </c>
       <c r="P20" t="n">
-        <v>105.12</v>
+        <v>83.23</v>
       </c>
     </row>
     <row r="21">
@@ -1437,46 +1437,46 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32.06</v>
+        <v>39.12</v>
       </c>
       <c r="D21" t="n">
-        <v>830.52</v>
+        <v>705.14</v>
       </c>
       <c r="E21" t="n">
-        <v>10.34</v>
+        <v>12.98</v>
       </c>
       <c r="F21" t="n">
-        <v>19.99</v>
+        <v>14.35</v>
       </c>
       <c r="G21" t="n">
-        <v>1054.09</v>
+        <v>1004.77</v>
       </c>
       <c r="H21" t="n">
-        <v>437.46</v>
+        <v>363.09</v>
       </c>
       <c r="I21" t="n">
-        <v>5447.9</v>
+        <v>5796.38</v>
       </c>
       <c r="J21" t="n">
-        <v>26308.12</v>
+        <v>28942.4</v>
       </c>
       <c r="K21" t="n">
-        <v>354.24</v>
+        <v>354.45</v>
       </c>
       <c r="L21" t="n">
-        <v>432.31</v>
+        <v>463.87</v>
       </c>
       <c r="M21" t="n">
-        <v>8671.59</v>
+        <v>8692.299999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>360.34</v>
+        <v>279.96</v>
       </c>
       <c r="O21" t="n">
-        <v>3449.27</v>
+        <v>4347.31</v>
       </c>
       <c r="P21" t="n">
-        <v>104.27</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="22">
@@ -1491,46 +1491,46 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12.63</v>
+        <v>13.17</v>
       </c>
       <c r="D22" t="n">
-        <v>416.43</v>
+        <v>460.56</v>
       </c>
       <c r="E22" t="n">
-        <v>114.68</v>
+        <v>145.51</v>
       </c>
       <c r="F22" t="n">
-        <v>26.18</v>
+        <v>30.7</v>
       </c>
       <c r="G22" t="n">
-        <v>623.86</v>
+        <v>489.99</v>
       </c>
       <c r="H22" t="n">
-        <v>312.5</v>
+        <v>344.18</v>
       </c>
       <c r="I22" t="n">
-        <v>43.66</v>
+        <v>36.86</v>
       </c>
       <c r="J22" t="n">
-        <v>16508.7</v>
+        <v>19213.21</v>
       </c>
       <c r="K22" t="n">
-        <v>213.33</v>
+        <v>272.91</v>
       </c>
       <c r="L22" t="n">
-        <v>219.81</v>
+        <v>216.27</v>
       </c>
       <c r="M22" t="n">
-        <v>2726.31</v>
+        <v>3333.22</v>
       </c>
       <c r="N22" t="n">
-        <v>175.07</v>
+        <v>129.22</v>
       </c>
       <c r="O22" t="n">
-        <v>1575.15</v>
+        <v>1682.51</v>
       </c>
       <c r="P22" t="n">
-        <v>94.63</v>
+        <v>83.45999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1545,46 +1545,46 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="D23" t="n">
-        <v>21.74</v>
+        <v>22.5</v>
       </c>
       <c r="E23" t="n">
-        <v>10.42</v>
+        <v>10.34</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>194.8</v>
+        <v>136.59</v>
       </c>
       <c r="H23" t="n">
-        <v>218.81</v>
+        <v>180.23</v>
       </c>
       <c r="I23" t="n">
-        <v>18.36</v>
+        <v>19.65</v>
       </c>
       <c r="J23" t="n">
-        <v>11237.28</v>
+        <v>12056.31</v>
       </c>
       <c r="K23" t="n">
-        <v>168.93</v>
+        <v>137.76</v>
       </c>
       <c r="L23" t="n">
-        <v>42.21</v>
+        <v>52.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1229.85</v>
+        <v>1546.95</v>
       </c>
       <c r="N23" t="n">
-        <v>233.78</v>
+        <v>201.33</v>
       </c>
       <c r="O23" t="n">
-        <v>1257.97</v>
+        <v>1216.5</v>
       </c>
       <c r="P23" t="n">
-        <v>102.17</v>
+        <v>106.94</v>
       </c>
     </row>
     <row r="24">
@@ -1599,46 +1599,46 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29.57</v>
+        <v>30.01</v>
       </c>
       <c r="D24" t="n">
-        <v>80.37</v>
+        <v>78.89</v>
       </c>
       <c r="E24" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="F24" t="n">
-        <v>1.16</v>
+        <v>0.97</v>
       </c>
       <c r="G24" t="n">
-        <v>79.03</v>
+        <v>106.26</v>
       </c>
       <c r="H24" t="n">
-        <v>107.22</v>
+        <v>108.11</v>
       </c>
       <c r="I24" t="n">
-        <v>16.69</v>
+        <v>17.05</v>
       </c>
       <c r="J24" t="n">
-        <v>9328.18</v>
+        <v>10397.15</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81</v>
+        <v>85.38</v>
       </c>
       <c r="L24" t="n">
-        <v>40.93</v>
+        <v>44.58</v>
       </c>
       <c r="M24" t="n">
-        <v>4326.12</v>
+        <v>4223.08</v>
       </c>
       <c r="N24" t="n">
-        <v>29.64</v>
+        <v>40.02</v>
       </c>
       <c r="O24" t="n">
-        <v>1278.77</v>
+        <v>1381.62</v>
       </c>
       <c r="P24" t="n">
-        <v>87</v>
+        <v>111.84</v>
       </c>
     </row>
     <row r="25">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="D25" t="n">
-        <v>41.55</v>
+        <v>36.01</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1665,34 +1665,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>32.37</v>
+        <v>35.57</v>
       </c>
       <c r="H25" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18970.48</v>
+        <v>18123.74</v>
       </c>
       <c r="K25" t="n">
-        <v>25.46</v>
+        <v>23.73</v>
       </c>
       <c r="L25" t="n">
-        <v>179.84</v>
+        <v>172.79</v>
       </c>
       <c r="M25" t="n">
-        <v>468.55</v>
+        <v>525.86</v>
       </c>
       <c r="N25" t="n">
-        <v>135.67</v>
+        <v>154.03</v>
       </c>
       <c r="O25" t="n">
-        <v>1659.39</v>
+        <v>1166.09</v>
       </c>
       <c r="P25" t="n">
-        <v>116.56</v>
+        <v>80.76000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1710,43 +1710,43 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>52.57</v>
+        <v>55.88</v>
       </c>
       <c r="E26" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G26" t="n">
-        <v>136.77</v>
+        <v>154.28</v>
       </c>
       <c r="H26" t="n">
-        <v>67.95</v>
+        <v>62.76</v>
       </c>
       <c r="I26" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="J26" t="n">
-        <v>34946.74</v>
+        <v>34628.7</v>
       </c>
       <c r="K26" t="n">
-        <v>57.49</v>
+        <v>49.88</v>
       </c>
       <c r="L26" t="n">
-        <v>12.49</v>
+        <v>14.52</v>
       </c>
       <c r="M26" t="n">
-        <v>7584.26</v>
+        <v>8939.280000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>130.56</v>
+        <v>131.79</v>
       </c>
       <c r="O26" t="n">
-        <v>1432.24</v>
+        <v>1477.02</v>
       </c>
       <c r="P26" t="n">
-        <v>85.69</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="27">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>20.78</v>
+        <v>19.39</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1773,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>42.89</v>
+        <v>34.33</v>
       </c>
       <c r="H27" t="n">
-        <v>23.59</v>
+        <v>29.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1748.67</v>
+        <v>1845.47</v>
       </c>
       <c r="K27" t="n">
-        <v>37.24</v>
+        <v>43.14</v>
       </c>
       <c r="L27" t="n">
-        <v>37</v>
+        <v>47.28</v>
       </c>
       <c r="M27" t="n">
-        <v>373.82</v>
+        <v>480.22</v>
       </c>
       <c r="N27" t="n">
-        <v>11.89</v>
+        <v>11.49</v>
       </c>
       <c r="O27" t="n">
-        <v>521.04</v>
+        <v>471.03</v>
       </c>
       <c r="P27" t="n">
-        <v>95.19</v>
+        <v>103.27</v>
       </c>
     </row>
     <row r="28">
@@ -1815,46 +1815,46 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.27</v>
+        <v>6.13</v>
       </c>
       <c r="D28" t="n">
-        <v>710.49</v>
+        <v>764.73</v>
       </c>
       <c r="E28" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="F28" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="G28" t="n">
-        <v>668.64</v>
+        <v>614.21</v>
       </c>
       <c r="H28" t="n">
-        <v>142.25</v>
+        <v>147.95</v>
       </c>
       <c r="I28" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="J28" t="n">
-        <v>21218.37</v>
+        <v>24611.5</v>
       </c>
       <c r="K28" t="n">
-        <v>152.68</v>
+        <v>173.68</v>
       </c>
       <c r="L28" t="n">
-        <v>82.2</v>
+        <v>88.05</v>
       </c>
       <c r="M28" t="n">
-        <v>4449.55</v>
+        <v>4839.87</v>
       </c>
       <c r="N28" t="n">
-        <v>54.92</v>
+        <v>48.12</v>
       </c>
       <c r="O28" t="n">
-        <v>1492.23</v>
+        <v>1643.05</v>
       </c>
       <c r="P28" t="n">
-        <v>102.61</v>
+        <v>103.88</v>
       </c>
     </row>
     <row r="29">
@@ -1869,46 +1869,46 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>39.25</v>
+        <v>46.21</v>
       </c>
       <c r="D29" t="n">
-        <v>185.29</v>
+        <v>222.89</v>
       </c>
       <c r="E29" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="F29" t="n">
-        <v>3.6</v>
+        <v>3.03</v>
       </c>
       <c r="G29" t="n">
-        <v>408.13</v>
+        <v>308.12</v>
       </c>
       <c r="H29" t="n">
-        <v>263.57</v>
+        <v>344.4</v>
       </c>
       <c r="I29" t="n">
-        <v>9.44</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>15355.53</v>
+        <v>12570.68</v>
       </c>
       <c r="K29" t="n">
-        <v>155.9</v>
+        <v>137.41</v>
       </c>
       <c r="L29" t="n">
-        <v>70.98999999999999</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>4418.76</v>
+        <v>4543.61</v>
       </c>
       <c r="N29" t="n">
-        <v>72.98999999999999</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>1994.67</v>
+        <v>2093.47</v>
       </c>
       <c r="P29" t="n">
-        <v>113.19</v>
+        <v>100.18</v>
       </c>
     </row>
     <row r="30">
@@ -1923,46 +1923,46 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.11</v>
+        <v>20.77</v>
       </c>
       <c r="D30" t="n">
-        <v>273.83</v>
+        <v>220.31</v>
       </c>
       <c r="E30" t="n">
-        <v>91.70999999999999</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>23.73</v>
+        <v>23.67</v>
       </c>
       <c r="G30" t="n">
-        <v>729.9299999999999</v>
+        <v>693.59</v>
       </c>
       <c r="H30" t="n">
-        <v>597.4299999999999</v>
+        <v>637.17</v>
       </c>
       <c r="I30" t="n">
-        <v>264.56</v>
+        <v>372.35</v>
       </c>
       <c r="J30" t="n">
-        <v>39042.23</v>
+        <v>31235.57</v>
       </c>
       <c r="K30" t="n">
-        <v>413.3</v>
+        <v>392.94</v>
       </c>
       <c r="L30" t="n">
-        <v>196.5</v>
+        <v>177.52</v>
       </c>
       <c r="M30" t="n">
-        <v>4765.86</v>
+        <v>5723.71</v>
       </c>
       <c r="N30" t="n">
-        <v>136.47</v>
+        <v>106.53</v>
       </c>
       <c r="O30" t="n">
-        <v>3406.42</v>
+        <v>3895.12</v>
       </c>
       <c r="P30" t="n">
-        <v>110.99</v>
+        <v>110.01</v>
       </c>
     </row>
     <row r="31">
@@ -1977,46 +1977,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.24</v>
+        <v>6.18</v>
       </c>
       <c r="D31" t="n">
-        <v>197.71</v>
+        <v>179.21</v>
       </c>
       <c r="E31" t="n">
-        <v>5.97</v>
+        <v>5.36</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>438.96</v>
+        <v>462.69</v>
       </c>
       <c r="H31" t="n">
-        <v>186.03</v>
+        <v>264.66</v>
       </c>
       <c r="I31" t="n">
-        <v>8.789999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="J31" t="n">
-        <v>22116.09</v>
+        <v>22862</v>
       </c>
       <c r="K31" t="n">
-        <v>239.77</v>
+        <v>235.02</v>
       </c>
       <c r="L31" t="n">
-        <v>90.39</v>
+        <v>68.72</v>
       </c>
       <c r="M31" t="n">
-        <v>5774.89</v>
+        <v>5183.63</v>
       </c>
       <c r="N31" t="n">
-        <v>87.34</v>
+        <v>89.75</v>
       </c>
       <c r="O31" t="n">
-        <v>2102.4</v>
+        <v>1935.83</v>
       </c>
       <c r="P31" t="n">
-        <v>106.24</v>
+        <v>84.34</v>
       </c>
     </row>
     <row r="32">
@@ -2031,46 +2031,46 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="D32" t="n">
-        <v>29.35</v>
+        <v>30.01</v>
       </c>
       <c r="E32" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>104.64</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>17.04</v>
+        <v>20.72</v>
       </c>
       <c r="I32" t="n">
-        <v>8.99</v>
+        <v>11.45</v>
       </c>
       <c r="J32" t="n">
-        <v>7716.88</v>
+        <v>8303.65</v>
       </c>
       <c r="K32" t="n">
-        <v>58.13</v>
+        <v>64.38</v>
       </c>
       <c r="L32" t="n">
-        <v>20.7</v>
+        <v>22.56</v>
       </c>
       <c r="M32" t="n">
-        <v>890.45</v>
+        <v>1039.71</v>
       </c>
       <c r="N32" t="n">
-        <v>107.54</v>
+        <v>100.03</v>
       </c>
       <c r="O32" t="n">
-        <v>790.5700000000001</v>
+        <v>816.64</v>
       </c>
       <c r="P32" t="n">
-        <v>92.34999999999999</v>
+        <v>110.66</v>
       </c>
     </row>
     <row r="33">
@@ -2085,46 +2085,46 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54.03</v>
+        <v>61.97</v>
       </c>
       <c r="D33" t="n">
-        <v>506.97</v>
+        <v>517.27</v>
       </c>
       <c r="E33" t="n">
-        <v>55.86</v>
+        <v>66.28</v>
       </c>
       <c r="F33" t="n">
-        <v>23.65</v>
+        <v>23.63</v>
       </c>
       <c r="G33" t="n">
-        <v>870.87</v>
+        <v>817.71</v>
       </c>
       <c r="H33" t="n">
-        <v>305.28</v>
+        <v>318.69</v>
       </c>
       <c r="I33" t="n">
-        <v>54.1</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>24955.56</v>
+        <v>22855.22</v>
       </c>
       <c r="K33" t="n">
-        <v>530.55</v>
+        <v>564.5599999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>355.86</v>
+        <v>480.43</v>
       </c>
       <c r="M33" t="n">
-        <v>5720.39</v>
+        <v>4796.51</v>
       </c>
       <c r="N33" t="n">
-        <v>127.76</v>
+        <v>96.11</v>
       </c>
       <c r="O33" t="n">
-        <v>2156.33</v>
+        <v>2147.43</v>
       </c>
       <c r="P33" t="n">
-        <v>109.96</v>
+        <v>86.76000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="D34" t="n">
-        <v>53.6</v>
+        <v>59.59</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2151,34 +2151,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49.44</v>
+        <v>48.49</v>
       </c>
       <c r="H34" t="n">
-        <v>52.98</v>
+        <v>63.43</v>
       </c>
       <c r="I34" t="n">
-        <v>16.39</v>
+        <v>13.44</v>
       </c>
       <c r="J34" t="n">
-        <v>1708.82</v>
+        <v>1536.95</v>
       </c>
       <c r="K34" t="n">
-        <v>64.91</v>
+        <v>61.03</v>
       </c>
       <c r="L34" t="n">
-        <v>33.97</v>
+        <v>30.02</v>
       </c>
       <c r="M34" t="n">
-        <v>254.86</v>
+        <v>224.9</v>
       </c>
       <c r="N34" t="n">
-        <v>13.72</v>
+        <v>14.07</v>
       </c>
       <c r="O34" t="n">
-        <v>836.1799999999999</v>
+        <v>863.39</v>
       </c>
       <c r="P34" t="n">
-        <v>84.72</v>
+        <v>91.45999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="D35" t="n">
-        <v>115.3</v>
+        <v>134.37</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>67.84999999999999</v>
+        <v>89.66</v>
       </c>
       <c r="H35" t="n">
-        <v>113.56</v>
+        <v>130.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="J35" t="n">
-        <v>11328.84</v>
+        <v>11084.24</v>
       </c>
       <c r="K35" t="n">
-        <v>77.59999999999999</v>
+        <v>99.56</v>
       </c>
       <c r="L35" t="n">
-        <v>25.28</v>
+        <v>22.46</v>
       </c>
       <c r="M35" t="n">
-        <v>3382.27</v>
+        <v>2972.54</v>
       </c>
       <c r="N35" t="n">
-        <v>13.96</v>
+        <v>12.32</v>
       </c>
       <c r="O35" t="n">
-        <v>1169.69</v>
+        <v>1054.58</v>
       </c>
       <c r="P35" t="n">
-        <v>100.85</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="36">
@@ -2250,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>87.2</v>
+        <v>119.22</v>
       </c>
       <c r="E36" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F36" t="n">
-        <v>29.07</v>
+        <v>24.81</v>
       </c>
       <c r="G36" t="n">
-        <v>1762.63</v>
+        <v>1543.19</v>
       </c>
       <c r="H36" t="n">
-        <v>17.54</v>
+        <v>19.64</v>
       </c>
       <c r="I36" t="n">
-        <v>6.93</v>
+        <v>5.84</v>
       </c>
       <c r="J36" t="n">
-        <v>13266.66</v>
+        <v>12956.22</v>
       </c>
       <c r="K36" t="n">
-        <v>5663.75</v>
+        <v>4753.98</v>
       </c>
       <c r="L36" t="n">
-        <v>128.17</v>
+        <v>134.92</v>
       </c>
       <c r="M36" t="n">
-        <v>3263.91</v>
+        <v>3063.75</v>
       </c>
       <c r="N36" t="n">
-        <v>58.83</v>
+        <v>66.59</v>
       </c>
       <c r="O36" t="n">
-        <v>833.4400000000001</v>
+        <v>663.17</v>
       </c>
       <c r="P36" t="n">
-        <v>113.06</v>
+        <v>83.91</v>
       </c>
     </row>
     <row r="37">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>15.94</v>
+        <v>17.58</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2313,34 +2313,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.93</v>
+        <v>41.82</v>
       </c>
       <c r="H37" t="n">
-        <v>30.25</v>
+        <v>30.89</v>
       </c>
       <c r="I37" t="n">
-        <v>9.27</v>
+        <v>11.67</v>
       </c>
       <c r="J37" t="n">
-        <v>1981.16</v>
+        <v>2123.64</v>
       </c>
       <c r="K37" t="n">
-        <v>32.32</v>
+        <v>33.82</v>
       </c>
       <c r="L37" t="n">
-        <v>27.61</v>
+        <v>25.45</v>
       </c>
       <c r="M37" t="n">
-        <v>638.1900000000001</v>
+        <v>495.13</v>
       </c>
       <c r="N37" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="O37" t="n">
-        <v>473.24</v>
+        <v>514.1</v>
       </c>
       <c r="P37" t="n">
-        <v>95.84</v>
+        <v>95.14</v>
       </c>
     </row>
     <row r="38">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.86</v>
+        <v>2.39</v>
       </c>
       <c r="D38" t="n">
-        <v>82.3</v>
+        <v>87.05</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2367,34 +2367,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>163.21</v>
+        <v>158.07</v>
       </c>
       <c r="H38" t="n">
-        <v>93.11</v>
+        <v>82.36</v>
       </c>
       <c r="I38" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="J38" t="n">
-        <v>8195.84</v>
+        <v>6974.06</v>
       </c>
       <c r="K38" t="n">
-        <v>152.55</v>
+        <v>112.65</v>
       </c>
       <c r="L38" t="n">
-        <v>53.77</v>
+        <v>53.95</v>
       </c>
       <c r="M38" t="n">
-        <v>1781.49</v>
+        <v>1833.01</v>
       </c>
       <c r="N38" t="n">
-        <v>68.06</v>
+        <v>55.3</v>
       </c>
       <c r="O38" t="n">
-        <v>2612.6</v>
+        <v>2926.65</v>
       </c>
       <c r="P38" t="n">
-        <v>113.8</v>
+        <v>99.06999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -2409,46 +2409,46 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="D39" t="n">
-        <v>141.32</v>
+        <v>168.1</v>
       </c>
       <c r="E39" t="n">
-        <v>10.79</v>
+        <v>9.59</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>107.09</v>
+        <v>84.37</v>
       </c>
       <c r="H39" t="n">
-        <v>79.5</v>
+        <v>69.16</v>
       </c>
       <c r="I39" t="n">
-        <v>8.82</v>
+        <v>7.64</v>
       </c>
       <c r="J39" t="n">
-        <v>11102.69</v>
+        <v>9794.620000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>291.16</v>
+        <v>309.18</v>
       </c>
       <c r="L39" t="n">
-        <v>25.51</v>
+        <v>23.92</v>
       </c>
       <c r="M39" t="n">
-        <v>1260.98</v>
+        <v>1216.76</v>
       </c>
       <c r="N39" t="n">
-        <v>50.57</v>
+        <v>44.21</v>
       </c>
       <c r="O39" t="n">
-        <v>923.73</v>
+        <v>963.38</v>
       </c>
       <c r="P39" t="n">
-        <v>99.03</v>
+        <v>107.77</v>
       </c>
     </row>
     <row r="40">
@@ -2463,46 +2463,46 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25.36</v>
+        <v>20.35</v>
       </c>
       <c r="D40" t="n">
-        <v>427.45</v>
+        <v>347.38</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="G40" t="n">
-        <v>261.69</v>
+        <v>234.07</v>
       </c>
       <c r="H40" t="n">
-        <v>223.32</v>
+        <v>201.76</v>
       </c>
       <c r="I40" t="n">
-        <v>10.16</v>
+        <v>10.56</v>
       </c>
       <c r="J40" t="n">
-        <v>14870.15</v>
+        <v>15805.03</v>
       </c>
       <c r="K40" t="n">
-        <v>302.07</v>
+        <v>261.51</v>
       </c>
       <c r="L40" t="n">
-        <v>94.88</v>
+        <v>123.41</v>
       </c>
       <c r="M40" t="n">
-        <v>2950.08</v>
+        <v>2977.75</v>
       </c>
       <c r="N40" t="n">
-        <v>234.84</v>
+        <v>178.03</v>
       </c>
       <c r="O40" t="n">
-        <v>5359.67</v>
+        <v>4275.16</v>
       </c>
       <c r="P40" t="n">
-        <v>92.18000000000001</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="41">
@@ -2517,46 +2517,46 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>47.48</v>
+        <v>60.01</v>
       </c>
       <c r="D41" t="n">
-        <v>100.49</v>
+        <v>89.83</v>
       </c>
       <c r="E41" t="n">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>47.13</v>
+        <v>41.87</v>
       </c>
       <c r="H41" t="n">
-        <v>33.61</v>
+        <v>37.61</v>
       </c>
       <c r="I41" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="J41" t="n">
-        <v>44920.92</v>
+        <v>40695.3</v>
       </c>
       <c r="K41" t="n">
-        <v>387.34</v>
+        <v>323.15</v>
       </c>
       <c r="L41" t="n">
-        <v>287.97</v>
+        <v>246.21</v>
       </c>
       <c r="M41" t="n">
-        <v>1618.21</v>
+        <v>1316.29</v>
       </c>
       <c r="N41" t="n">
-        <v>119.35</v>
+        <v>153.84</v>
       </c>
       <c r="O41" t="n">
-        <v>2160.08</v>
+        <v>2675.95</v>
       </c>
       <c r="P41" t="n">
-        <v>86.27</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>10.22</v>
+        <v>10.56</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2583,34 +2583,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>16.83</v>
+        <v>18.87</v>
       </c>
       <c r="H42" t="n">
-        <v>26.95</v>
+        <v>24.61</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>885.39</v>
+        <v>731</v>
       </c>
       <c r="K42" t="n">
-        <v>16.29</v>
+        <v>18.67</v>
       </c>
       <c r="L42" t="n">
-        <v>22.67</v>
+        <v>24.71</v>
       </c>
       <c r="M42" t="n">
-        <v>180.07</v>
+        <v>207.6</v>
       </c>
       <c r="N42" t="n">
-        <v>11.4</v>
+        <v>11.71</v>
       </c>
       <c r="O42" t="n">
-        <v>565.4400000000001</v>
+        <v>468.06</v>
       </c>
       <c r="P42" t="n">
-        <v>95.90000000000001</v>
+        <v>92.62</v>
       </c>
     </row>
     <row r="43">
@@ -2625,46 +2625,46 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.25</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>689.6799999999999</v>
+        <v>638.99</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="G43" t="n">
-        <v>931.78</v>
+        <v>649.61</v>
       </c>
       <c r="H43" t="n">
-        <v>313.18</v>
+        <v>302.15</v>
       </c>
       <c r="I43" t="n">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="J43" t="n">
-        <v>38094.05</v>
+        <v>33946.07</v>
       </c>
       <c r="K43" t="n">
-        <v>500</v>
+        <v>642.5599999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>255.48</v>
+        <v>181.87</v>
       </c>
       <c r="M43" t="n">
-        <v>5133.68</v>
+        <v>5122</v>
       </c>
       <c r="N43" t="n">
-        <v>152.47</v>
+        <v>204.21</v>
       </c>
       <c r="O43" t="n">
-        <v>3646.08</v>
+        <v>3477.87</v>
       </c>
       <c r="P43" t="n">
-        <v>91.28</v>
+        <v>83.97</v>
       </c>
     </row>
     <row r="44">
@@ -2679,46 +2679,46 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9.76</v>
+        <v>7.61</v>
       </c>
       <c r="D44" t="n">
-        <v>205.41</v>
+        <v>197.11</v>
       </c>
       <c r="E44" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="F44" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>602.12</v>
+        <v>530.6</v>
       </c>
       <c r="H44" t="n">
-        <v>81.86</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>21.68</v>
+        <v>22.78</v>
       </c>
       <c r="J44" t="n">
-        <v>12386</v>
+        <v>13907.19</v>
       </c>
       <c r="K44" t="n">
-        <v>222.29</v>
+        <v>207.07</v>
       </c>
       <c r="L44" t="n">
-        <v>90.36</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>3219.57</v>
+        <v>3296.39</v>
       </c>
       <c r="N44" t="n">
-        <v>226.06</v>
+        <v>231.32</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.3</v>
+        <v>1897.76</v>
       </c>
       <c r="P44" t="n">
-        <v>115.88</v>
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2733,46 +2733,46 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.82</v>
+        <v>12.29</v>
       </c>
       <c r="D45" t="n">
-        <v>61.72</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>373.13</v>
+        <v>370.73</v>
       </c>
       <c r="H45" t="n">
-        <v>39.74</v>
+        <v>47.15</v>
       </c>
       <c r="I45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>15471.31</v>
+        <v>13694.02</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73</v>
+        <v>86.22</v>
       </c>
       <c r="L45" t="n">
-        <v>27.39</v>
+        <v>29.61</v>
       </c>
       <c r="M45" t="n">
-        <v>3538.41</v>
+        <v>3642.42</v>
       </c>
       <c r="N45" t="n">
-        <v>113.73</v>
+        <v>96.03</v>
       </c>
       <c r="O45" t="n">
-        <v>1244.43</v>
+        <v>1517.52</v>
       </c>
       <c r="P45" t="n">
-        <v>114.97</v>
+        <v>84.54000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -2787,46 +2787,46 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25.41</v>
+        <v>27.62</v>
       </c>
       <c r="D46" t="n">
-        <v>233.93</v>
+        <v>251.85</v>
       </c>
       <c r="E46" t="n">
-        <v>35.93</v>
+        <v>35.66</v>
       </c>
       <c r="F46" t="n">
-        <v>15.21</v>
+        <v>15.89</v>
       </c>
       <c r="G46" t="n">
-        <v>335.41</v>
+        <v>336.86</v>
       </c>
       <c r="H46" t="n">
-        <v>366.93</v>
+        <v>433.52</v>
       </c>
       <c r="I46" t="n">
-        <v>27.03</v>
+        <v>25.22</v>
       </c>
       <c r="J46" t="n">
-        <v>17053.06</v>
+        <v>13313.16</v>
       </c>
       <c r="K46" t="n">
-        <v>302.85</v>
+        <v>256.49</v>
       </c>
       <c r="L46" t="n">
-        <v>179.36</v>
+        <v>214.89</v>
       </c>
       <c r="M46" t="n">
-        <v>3789</v>
+        <v>3509.93</v>
       </c>
       <c r="N46" t="n">
-        <v>123.96</v>
+        <v>124.71</v>
       </c>
       <c r="O46" t="n">
-        <v>2541.34</v>
+        <v>2749.69</v>
       </c>
       <c r="P46" t="n">
-        <v>90.48</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="47">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="D47" t="n">
-        <v>97.67</v>
+        <v>114.26</v>
       </c>
       <c r="E47" t="n">
-        <v>5.38</v>
+        <v>5.1</v>
       </c>
       <c r="F47" t="n">
-        <v>6.39</v>
+        <v>6.44</v>
       </c>
       <c r="G47" t="n">
-        <v>125.86</v>
+        <v>140.75</v>
       </c>
       <c r="H47" t="n">
-        <v>212.19</v>
+        <v>174.46</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3339.09</v>
+        <v>2746.58</v>
       </c>
       <c r="K47" t="n">
-        <v>237.47</v>
+        <v>297.16</v>
       </c>
       <c r="L47" t="n">
-        <v>27.48</v>
+        <v>29.01</v>
       </c>
       <c r="M47" t="n">
-        <v>923.01</v>
+        <v>971.55</v>
       </c>
       <c r="N47" t="n">
-        <v>21.92</v>
+        <v>21.96</v>
       </c>
       <c r="O47" t="n">
-        <v>369.69</v>
+        <v>269.61</v>
       </c>
       <c r="P47" t="n">
-        <v>97.98999999999999</v>
+        <v>119.76</v>
       </c>
     </row>
     <row r="48">
@@ -2895,46 +2895,46 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.9</v>
+        <v>6.86</v>
       </c>
       <c r="D48" t="n">
-        <v>271.02</v>
+        <v>240.55</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.99</v>
+        <v>3.27</v>
       </c>
       <c r="G48" t="n">
-        <v>239.03</v>
+        <v>269.58</v>
       </c>
       <c r="H48" t="n">
-        <v>146.22</v>
+        <v>177.22</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>12550.73</v>
+        <v>11493.75</v>
       </c>
       <c r="K48" t="n">
-        <v>123.58</v>
+        <v>126.95</v>
       </c>
       <c r="L48" t="n">
-        <v>66.39</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>5844.84</v>
+        <v>7900.8</v>
       </c>
       <c r="N48" t="n">
-        <v>102.37</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>1355.16</v>
+        <v>1000.51</v>
       </c>
       <c r="P48" t="n">
-        <v>86.73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2961,34 +2961,34 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>15.12</v>
+        <v>14.22</v>
       </c>
       <c r="H49" t="n">
-        <v>7.28</v>
+        <v>7.96</v>
       </c>
       <c r="I49" t="n">
-        <v>8.109999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="J49" t="n">
-        <v>2151.4</v>
+        <v>1848.66</v>
       </c>
       <c r="K49" t="n">
-        <v>30.94</v>
+        <v>39.49</v>
       </c>
       <c r="L49" t="n">
-        <v>3.31</v>
+        <v>4.4</v>
       </c>
       <c r="M49" t="n">
-        <v>2380.76</v>
+        <v>2794.98</v>
       </c>
       <c r="N49" t="n">
-        <v>17.95</v>
+        <v>15.61</v>
       </c>
       <c r="O49" t="n">
-        <v>805.84</v>
+        <v>681.83</v>
       </c>
       <c r="P49" t="n">
-        <v>80.36</v>
+        <v>111.93</v>
       </c>
     </row>
     <row r="50">
@@ -3003,46 +3003,46 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="D50" t="n">
-        <v>127.7</v>
+        <v>134.43</v>
       </c>
       <c r="E50" t="n">
-        <v>9.960000000000001</v>
+        <v>13.13</v>
       </c>
       <c r="F50" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="G50" t="n">
-        <v>392.38</v>
+        <v>359.16</v>
       </c>
       <c r="H50" t="n">
-        <v>263.75</v>
+        <v>258.66</v>
       </c>
       <c r="I50" t="n">
-        <v>19.73</v>
+        <v>20.4</v>
       </c>
       <c r="J50" t="n">
-        <v>12530.2</v>
+        <v>9889.559999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>247.54</v>
+        <v>291.19</v>
       </c>
       <c r="L50" t="n">
-        <v>124.71</v>
+        <v>166.52</v>
       </c>
       <c r="M50" t="n">
-        <v>2626.9</v>
+        <v>1887.24</v>
       </c>
       <c r="N50" t="n">
-        <v>105.96</v>
+        <v>92.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1991</v>
+        <v>1425.3</v>
       </c>
       <c r="P50" t="n">
-        <v>108.49</v>
+        <v>92.91</v>
       </c>
     </row>
     <row r="51">
@@ -3057,46 +3057,46 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22.88</v>
+        <v>23.62</v>
       </c>
       <c r="D51" t="n">
-        <v>213</v>
+        <v>222.23</v>
       </c>
       <c r="E51" t="n">
-        <v>37.12</v>
+        <v>32.49</v>
       </c>
       <c r="F51" t="n">
-        <v>8.06</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>922.14</v>
+        <v>683.01</v>
       </c>
       <c r="H51" t="n">
-        <v>347.69</v>
+        <v>395.9</v>
       </c>
       <c r="I51" t="n">
-        <v>30.74</v>
+        <v>23.75</v>
       </c>
       <c r="J51" t="n">
-        <v>49396.98</v>
+        <v>60173.44</v>
       </c>
       <c r="K51" t="n">
-        <v>686.46</v>
+        <v>482.31</v>
       </c>
       <c r="L51" t="n">
-        <v>638.15</v>
+        <v>486.27</v>
       </c>
       <c r="M51" t="n">
-        <v>7004.52</v>
+        <v>8045.01</v>
       </c>
       <c r="N51" t="n">
-        <v>257.74</v>
+        <v>228.3</v>
       </c>
       <c r="O51" t="n">
-        <v>7706.26</v>
+        <v>7593.9</v>
       </c>
       <c r="P51" t="n">
-        <v>88.43000000000001</v>
+        <v>86.64</v>
       </c>
     </row>
     <row r="52">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5.61</v>
+        <v>4.81</v>
       </c>
       <c r="D52" t="n">
-        <v>328.18</v>
+        <v>409.63</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>199.8</v>
+        <v>230.9</v>
       </c>
       <c r="H52" t="n">
-        <v>106.37</v>
+        <v>124.87</v>
       </c>
       <c r="I52" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="J52" t="n">
-        <v>4671.29</v>
+        <v>4415.8</v>
       </c>
       <c r="K52" t="n">
-        <v>122.5</v>
+        <v>114.79</v>
       </c>
       <c r="L52" t="n">
-        <v>36.45</v>
+        <v>32.49</v>
       </c>
       <c r="M52" t="n">
-        <v>1223.81</v>
+        <v>1136.18</v>
       </c>
       <c r="N52" t="n">
-        <v>157.61</v>
+        <v>161.31</v>
       </c>
       <c r="O52" t="n">
-        <v>870.16</v>
+        <v>902.45</v>
       </c>
       <c r="P52" t="n">
-        <v>111.7</v>
+        <v>86.17</v>
       </c>
     </row>
     <row r="53">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3.44</v>
+        <v>2.94</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>18.22</v>
+        <v>16.78</v>
       </c>
       <c r="H53" t="n">
-        <v>57.18</v>
+        <v>55.99</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1028.33</v>
+        <v>1070.84</v>
       </c>
       <c r="K53" t="n">
-        <v>28.16</v>
+        <v>32.53</v>
       </c>
       <c r="L53" t="n">
-        <v>20.78</v>
+        <v>24.54</v>
       </c>
       <c r="M53" t="n">
-        <v>329.24</v>
+        <v>447.26</v>
       </c>
       <c r="N53" t="n">
-        <v>10.54</v>
+        <v>11.82</v>
       </c>
       <c r="O53" t="n">
-        <v>320.45</v>
+        <v>286.61</v>
       </c>
       <c r="P53" t="n">
-        <v>95.23</v>
+        <v>117.64</v>
       </c>
     </row>
     <row r="54">
@@ -3219,46 +3219,46 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15.63</v>
+        <v>18.34</v>
       </c>
       <c r="D54" t="n">
-        <v>561.96</v>
+        <v>590.67</v>
       </c>
       <c r="E54" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>481.8</v>
+        <v>651.78</v>
       </c>
       <c r="H54" t="n">
-        <v>79.02</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>21251.41</v>
+        <v>22096.61</v>
       </c>
       <c r="K54" t="n">
-        <v>116.42</v>
+        <v>114.66</v>
       </c>
       <c r="L54" t="n">
-        <v>101.01</v>
+        <v>87.3</v>
       </c>
       <c r="M54" t="n">
-        <v>4556.39</v>
+        <v>6253.55</v>
       </c>
       <c r="N54" t="n">
-        <v>89.56999999999999</v>
+        <v>107.56</v>
       </c>
       <c r="O54" t="n">
-        <v>1620.05</v>
+        <v>1832.19</v>
       </c>
       <c r="P54" t="n">
-        <v>85.14</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="55">
@@ -3273,46 +3273,46 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.98</v>
+        <v>7.68</v>
       </c>
       <c r="D55" t="n">
-        <v>650.84</v>
+        <v>854.97</v>
       </c>
       <c r="E55" t="n">
-        <v>77.90000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="F55" t="n">
-        <v>35.3</v>
+        <v>32.93</v>
       </c>
       <c r="G55" t="n">
-        <v>817.85</v>
+        <v>916.6</v>
       </c>
       <c r="H55" t="n">
-        <v>561.88</v>
+        <v>452.51</v>
       </c>
       <c r="I55" t="n">
-        <v>19.19</v>
+        <v>26.23</v>
       </c>
       <c r="J55" t="n">
-        <v>23094.29</v>
+        <v>21301.54</v>
       </c>
       <c r="K55" t="n">
-        <v>557.74</v>
+        <v>458.45</v>
       </c>
       <c r="L55" t="n">
-        <v>205.72</v>
+        <v>227.78</v>
       </c>
       <c r="M55" t="n">
-        <v>6129.78</v>
+        <v>5286.99</v>
       </c>
       <c r="N55" t="n">
-        <v>178.13</v>
+        <v>223.37</v>
       </c>
       <c r="O55" t="n">
-        <v>2424.59</v>
+        <v>2683.09</v>
       </c>
       <c r="P55" t="n">
-        <v>110.31</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>27.18</v>
+        <v>24.48</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3339,34 +3339,34 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>38.15</v>
+        <v>41.61</v>
       </c>
       <c r="H56" t="n">
-        <v>6.09</v>
+        <v>6.12</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>5908.79</v>
+        <v>6015.2</v>
       </c>
       <c r="K56" t="n">
-        <v>65.76000000000001</v>
+        <v>50.42</v>
       </c>
       <c r="L56" t="n">
-        <v>57.49</v>
+        <v>45.98</v>
       </c>
       <c r="M56" t="n">
-        <v>1564.23</v>
+        <v>1206.32</v>
       </c>
       <c r="N56" t="n">
-        <v>67.31999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="O56" t="n">
-        <v>772.83</v>
+        <v>755.39</v>
       </c>
       <c r="P56" t="n">
-        <v>96.39</v>
+        <v>107.93</v>
       </c>
     </row>
     <row r="57">
@@ -3381,46 +3381,46 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15.29</v>
+        <v>13.99</v>
       </c>
       <c r="D57" t="n">
-        <v>337.13</v>
+        <v>270.19</v>
       </c>
       <c r="E57" t="n">
-        <v>6.73</v>
+        <v>6.31</v>
       </c>
       <c r="F57" t="n">
-        <v>6.71</v>
+        <v>7.55</v>
       </c>
       <c r="G57" t="n">
-        <v>235.37</v>
+        <v>224.69</v>
       </c>
       <c r="H57" t="n">
-        <v>163.28</v>
+        <v>234.58</v>
       </c>
       <c r="I57" t="n">
-        <v>28.39</v>
+        <v>24.67</v>
       </c>
       <c r="J57" t="n">
-        <v>29924.47</v>
+        <v>29396.44</v>
       </c>
       <c r="K57" t="n">
-        <v>381.4</v>
+        <v>416.34</v>
       </c>
       <c r="L57" t="n">
-        <v>137.02</v>
+        <v>142.54</v>
       </c>
       <c r="M57" t="n">
-        <v>7694.47</v>
+        <v>7198.26</v>
       </c>
       <c r="N57" t="n">
-        <v>161.23</v>
+        <v>145.43</v>
       </c>
       <c r="O57" t="n">
-        <v>2376.5</v>
+        <v>2624.8</v>
       </c>
       <c r="P57" t="n">
-        <v>107.93</v>
+        <v>117.11</v>
       </c>
     </row>
     <row r="58">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>14.96</v>
+        <v>19.57</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>30.74</v>
+        <v>26.48</v>
       </c>
       <c r="H58" t="n">
-        <v>6.9</v>
+        <v>4.97</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2867.34</v>
+        <v>3219.87</v>
       </c>
       <c r="K58" t="n">
-        <v>14.89</v>
+        <v>12.53</v>
       </c>
       <c r="L58" t="n">
-        <v>6.1</v>
+        <v>7.08</v>
       </c>
       <c r="M58" t="n">
-        <v>402.47</v>
+        <v>504.66</v>
       </c>
       <c r="N58" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>325.19</v>
+        <v>430.16</v>
       </c>
       <c r="P58" t="n">
-        <v>111.53</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -3489,10 +3489,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="D59" t="n">
-        <v>7.44</v>
+        <v>10.73</v>
       </c>
       <c r="E59" t="n">
         <v>0.8100000000000001</v>
@@ -3501,34 +3501,34 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>18.01</v>
+        <v>21.51</v>
       </c>
       <c r="H59" t="n">
-        <v>3.42</v>
+        <v>4.59</v>
       </c>
       <c r="I59" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="J59" t="n">
-        <v>344.26</v>
+        <v>272.72</v>
       </c>
       <c r="K59" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="L59" t="n">
-        <v>1.15</v>
+        <v>0.98</v>
       </c>
       <c r="M59" t="n">
-        <v>96</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="N59" t="n">
-        <v>10.01</v>
+        <v>8.98</v>
       </c>
       <c r="O59" t="n">
-        <v>1002.76</v>
+        <v>1292.9</v>
       </c>
       <c r="P59" t="n">
-        <v>99.98999999999999</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="60">

--- a/obfuscated/Offenses.xlsx
+++ b/obfuscated/Offenses.xlsx
@@ -681,46 +681,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>597.49</v>
+        <v>704.3099999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>11978.65</v>
+        <v>15346.55</v>
       </c>
       <c r="E7" t="n">
-        <v>614.86</v>
+        <v>527.99</v>
       </c>
       <c r="F7" t="n">
-        <v>302.86</v>
+        <v>262.56</v>
       </c>
       <c r="G7" t="n">
-        <v>16892.34</v>
+        <v>18981.99</v>
       </c>
       <c r="H7" t="n">
-        <v>7986.3</v>
+        <v>10947.47</v>
       </c>
       <c r="I7" t="n">
-        <v>5867.52</v>
+        <v>7617.89</v>
       </c>
       <c r="J7" t="n">
-        <v>918590.0699999999</v>
+        <v>899267.54</v>
       </c>
       <c r="K7" t="n">
-        <v>17042.63</v>
+        <v>12912.18</v>
       </c>
       <c r="L7" t="n">
-        <v>5202.32</v>
+        <v>4611.73</v>
       </c>
       <c r="M7" t="n">
-        <v>229067.69</v>
+        <v>225311.99</v>
       </c>
       <c r="N7" t="n">
-        <v>6852.31</v>
+        <v>7097.25</v>
       </c>
       <c r="O7" t="n">
-        <v>91337.67</v>
+        <v>100463.29</v>
       </c>
       <c r="P7" t="n">
-        <v>97.3</v>
+        <v>91.66</v>
       </c>
     </row>
     <row r="8">
@@ -738,43 +738,43 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>287.82</v>
+        <v>313.81</v>
       </c>
       <c r="E8" t="n">
-        <v>5.52</v>
+        <v>4.83</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>122.57</v>
+        <v>114.15</v>
       </c>
       <c r="H8" t="n">
-        <v>56.33</v>
+        <v>69.86</v>
       </c>
       <c r="I8" t="n">
-        <v>18.71</v>
+        <v>16.03</v>
       </c>
       <c r="J8" t="n">
-        <v>13753.22</v>
+        <v>16559.49</v>
       </c>
       <c r="K8" t="n">
-        <v>217.09</v>
+        <v>222.93</v>
       </c>
       <c r="L8" t="n">
-        <v>119.8</v>
+        <v>118.74</v>
       </c>
       <c r="M8" t="n">
-        <v>2135.79</v>
+        <v>2061.08</v>
       </c>
       <c r="N8" t="n">
-        <v>105.19</v>
+        <v>127.69</v>
       </c>
       <c r="O8" t="n">
-        <v>1377.81</v>
+        <v>1497.83</v>
       </c>
       <c r="P8" t="n">
-        <v>105.39</v>
+        <v>108.23</v>
       </c>
     </row>
     <row r="9">
@@ -792,43 +792,43 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.17</v>
+        <v>4.79</v>
       </c>
       <c r="E9" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.53</v>
+        <v>14.17</v>
       </c>
       <c r="H9" t="n">
-        <v>43.44</v>
+        <v>47.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.47</v>
+        <v>3.14</v>
       </c>
       <c r="J9" t="n">
-        <v>1985.44</v>
+        <v>1613.29</v>
       </c>
       <c r="K9" t="n">
-        <v>24.14</v>
+        <v>22.81</v>
       </c>
       <c r="L9" t="n">
-        <v>19.09</v>
+        <v>15.99</v>
       </c>
       <c r="M9" t="n">
-        <v>322.28</v>
+        <v>360.78</v>
       </c>
       <c r="N9" t="n">
-        <v>10.09</v>
+        <v>11.02</v>
       </c>
       <c r="O9" t="n">
-        <v>481.57</v>
+        <v>566.84</v>
       </c>
       <c r="P9" t="n">
-        <v>112.22</v>
+        <v>83.31</v>
       </c>
     </row>
     <row r="10">
@@ -843,46 +843,46 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.369999999999999</v>
+        <v>10.15</v>
       </c>
       <c r="D10" t="n">
-        <v>773.8</v>
+        <v>737.78</v>
       </c>
       <c r="E10" t="n">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
-        <v>469.93</v>
+        <v>690.99</v>
       </c>
       <c r="H10" t="n">
-        <v>126.83</v>
+        <v>105.75</v>
       </c>
       <c r="I10" t="n">
-        <v>6.38</v>
+        <v>5.68</v>
       </c>
       <c r="J10" t="n">
-        <v>19467.25</v>
+        <v>15637.98</v>
       </c>
       <c r="K10" t="n">
-        <v>142.64</v>
+        <v>172.12</v>
       </c>
       <c r="L10" t="n">
-        <v>82.95</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>4748.88</v>
+        <v>6005.62</v>
       </c>
       <c r="N10" t="n">
-        <v>80.03</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>2327.46</v>
+        <v>1626.89</v>
       </c>
       <c r="P10" t="n">
-        <v>118.84</v>
+        <v>117.17</v>
       </c>
     </row>
     <row r="11">
@@ -897,46 +897,46 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.99</v>
+        <v>15.46</v>
       </c>
       <c r="D11" t="n">
-        <v>73.23999999999999</v>
+        <v>61.34</v>
       </c>
       <c r="E11" t="n">
-        <v>0.96</v>
+        <v>1.16</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>201.15</v>
+        <v>222.82</v>
       </c>
       <c r="H11" t="n">
-        <v>30.3</v>
+        <v>39.38</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8396.790000000001</v>
+        <v>8924.610000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>111.76</v>
+        <v>90.03</v>
       </c>
       <c r="L11" t="n">
-        <v>43.04</v>
+        <v>40.6</v>
       </c>
       <c r="M11" t="n">
-        <v>876.78</v>
+        <v>997.01</v>
       </c>
       <c r="N11" t="n">
-        <v>37.55</v>
+        <v>34.09</v>
       </c>
       <c r="O11" t="n">
-        <v>1274.11</v>
+        <v>965.25</v>
       </c>
       <c r="P11" t="n">
-        <v>115.47</v>
+        <v>83.91</v>
       </c>
     </row>
     <row r="12">
@@ -951,46 +951,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>131.33</v>
+        <v>113.7</v>
       </c>
       <c r="D12" t="n">
-        <v>1314.25</v>
+        <v>1325.14</v>
       </c>
       <c r="E12" t="n">
-        <v>117.77</v>
+        <v>117.08</v>
       </c>
       <c r="F12" t="n">
-        <v>82.55</v>
+        <v>87.55</v>
       </c>
       <c r="G12" t="n">
-        <v>1814.24</v>
+        <v>1995.37</v>
       </c>
       <c r="H12" t="n">
-        <v>2306.93</v>
+        <v>2661.57</v>
       </c>
       <c r="I12" t="n">
-        <v>395.47</v>
+        <v>360.42</v>
       </c>
       <c r="J12" t="n">
-        <v>115638.22</v>
+        <v>118686.16</v>
       </c>
       <c r="K12" t="n">
-        <v>1506.21</v>
+        <v>2096.07</v>
       </c>
       <c r="L12" t="n">
-        <v>965.83</v>
+        <v>1003.61</v>
       </c>
       <c r="M12" t="n">
-        <v>42344.78</v>
+        <v>58174.18</v>
       </c>
       <c r="N12" t="n">
-        <v>2064.62</v>
+        <v>2085</v>
       </c>
       <c r="O12" t="n">
-        <v>11145.8</v>
+        <v>10990.33</v>
       </c>
       <c r="P12" t="n">
-        <v>88.37</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="13">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="D13" t="n">
-        <v>90.45</v>
+        <v>66.13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1017,34 +1017,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>102.46</v>
+        <v>96.61</v>
       </c>
       <c r="H13" t="n">
-        <v>51.95</v>
+        <v>41.32</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8104.68</v>
+        <v>6502.31</v>
       </c>
       <c r="K13" t="n">
-        <v>101.33</v>
+        <v>114.49</v>
       </c>
       <c r="L13" t="n">
-        <v>8.59</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>1125.99</v>
+        <v>1109.72</v>
       </c>
       <c r="N13" t="n">
-        <v>37.99</v>
+        <v>39.11</v>
       </c>
       <c r="O13" t="n">
-        <v>2250.64</v>
+        <v>1940.49</v>
       </c>
       <c r="P13" t="n">
-        <v>114.45</v>
+        <v>119.68</v>
       </c>
     </row>
     <row r="14">
@@ -1059,46 +1059,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.41</v>
+        <v>3.09</v>
       </c>
       <c r="D14" t="n">
-        <v>163.4</v>
+        <v>183.7</v>
       </c>
       <c r="E14" t="n">
-        <v>7.29</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="G14" t="n">
-        <v>99.79000000000001</v>
+        <v>100.46</v>
       </c>
       <c r="H14" t="n">
-        <v>204.62</v>
+        <v>191.51</v>
       </c>
       <c r="I14" t="n">
-        <v>4.07</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>15104.92</v>
+        <v>12013.53</v>
       </c>
       <c r="K14" t="n">
-        <v>96.75</v>
+        <v>101.08</v>
       </c>
       <c r="L14" t="n">
-        <v>28.9</v>
+        <v>29.13</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.97</v>
+        <v>2497.25</v>
       </c>
       <c r="N14" t="n">
-        <v>46.13</v>
+        <v>45.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1035.17</v>
+        <v>1133.67</v>
       </c>
       <c r="P14" t="n">
-        <v>103.12</v>
+        <v>85.76000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>6.06</v>
+        <v>5.34</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.99</v>
+        <v>7.56</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>903.01</v>
+        <v>800.75</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>481.64</v>
+        <v>482.72</v>
       </c>
       <c r="N15" t="n">
-        <v>7.53</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>217.1</v>
+        <v>238.28</v>
       </c>
       <c r="P15" t="n">
-        <v>85.84999999999999</v>
+        <v>102.03</v>
       </c>
     </row>
     <row r="16">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10.33</v>
+        <v>10.68</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1179,34 +1179,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.37</v>
+        <v>23.79</v>
       </c>
       <c r="H16" t="n">
-        <v>18.07</v>
+        <v>16.78</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4871.19</v>
+        <v>4548.82</v>
       </c>
       <c r="K16" t="n">
-        <v>31.1</v>
+        <v>40.73</v>
       </c>
       <c r="L16" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="M16" t="n">
-        <v>1208.65</v>
+        <v>1036.97</v>
       </c>
       <c r="N16" t="n">
-        <v>14.35</v>
+        <v>16.97</v>
       </c>
       <c r="O16" t="n">
-        <v>211.46</v>
+        <v>206.59</v>
       </c>
       <c r="P16" t="n">
-        <v>115.2</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="17">
@@ -1221,46 +1221,46 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>42.33</v>
+        <v>38.14</v>
       </c>
       <c r="D17" t="n">
-        <v>41.6</v>
+        <v>49.82</v>
       </c>
       <c r="E17" t="n">
-        <v>6.65</v>
+        <v>8.06</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>105.42</v>
+        <v>117.58</v>
       </c>
       <c r="H17" t="n">
-        <v>5.16</v>
+        <v>7.2</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9347.950000000001</v>
+        <v>7912.45</v>
       </c>
       <c r="K17" t="n">
-        <v>99.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>25.79</v>
+        <v>25.38</v>
       </c>
       <c r="M17" t="n">
-        <v>3469.97</v>
+        <v>3433.89</v>
       </c>
       <c r="N17" t="n">
-        <v>114.86</v>
+        <v>144.01</v>
       </c>
       <c r="O17" t="n">
-        <v>3748.22</v>
+        <v>4559.17</v>
       </c>
       <c r="P17" t="n">
-        <v>85.97</v>
+        <v>80.68000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48.51</v>
+        <v>49.95</v>
       </c>
       <c r="D18" t="n">
-        <v>2141.31</v>
+        <v>1912.89</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1287,34 +1287,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>88.63</v>
+        <v>83.34</v>
       </c>
       <c r="H18" t="n">
-        <v>32.06</v>
+        <v>40.03</v>
       </c>
       <c r="I18" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="J18" t="n">
-        <v>55667.01</v>
+        <v>46777.37</v>
       </c>
       <c r="K18" t="n">
-        <v>76.47</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>31.39</v>
+        <v>30.14</v>
       </c>
       <c r="M18" t="n">
-        <v>12461.99</v>
+        <v>11300.41</v>
       </c>
       <c r="N18" t="n">
-        <v>232.41</v>
+        <v>174.92</v>
       </c>
       <c r="O18" t="n">
-        <v>2698.24</v>
+        <v>1997.57</v>
       </c>
       <c r="P18" t="n">
-        <v>106.91</v>
+        <v>104.39</v>
       </c>
     </row>
     <row r="19">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.44</v>
+        <v>4.11</v>
       </c>
       <c r="D19" t="n">
-        <v>143.16</v>
+        <v>135.87</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.22</v>
+        <v>14.06</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>9.720000000000001</v>
+        <v>10.82</v>
       </c>
       <c r="L19" t="n">
-        <v>3.26</v>
+        <v>2.76</v>
       </c>
       <c r="M19" t="n">
-        <v>522.52</v>
+        <v>485.82</v>
       </c>
       <c r="N19" t="n">
-        <v>3.93</v>
+        <v>3.77</v>
       </c>
       <c r="O19" t="n">
-        <v>292.71</v>
+        <v>276.39</v>
       </c>
       <c r="P19" t="n">
-        <v>118.1</v>
+        <v>93.81999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1383,46 +1383,46 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.369999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="D20" t="n">
-        <v>43.74</v>
+        <v>48.37</v>
       </c>
       <c r="E20" t="n">
-        <v>4.78</v>
+        <v>4.97</v>
       </c>
       <c r="F20" t="n">
-        <v>2.71</v>
+        <v>3.42</v>
       </c>
       <c r="G20" t="n">
-        <v>176.33</v>
+        <v>144.24</v>
       </c>
       <c r="H20" t="n">
-        <v>30.3</v>
+        <v>29.73</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2431.96</v>
+        <v>1950.92</v>
       </c>
       <c r="K20" t="n">
-        <v>50.25</v>
+        <v>53.45</v>
       </c>
       <c r="L20" t="n">
-        <v>22.52</v>
+        <v>23.03</v>
       </c>
       <c r="M20" t="n">
-        <v>882.46</v>
+        <v>1016.7</v>
       </c>
       <c r="N20" t="n">
-        <v>21.25</v>
+        <v>26.75</v>
       </c>
       <c r="O20" t="n">
-        <v>597.79</v>
+        <v>849.22</v>
       </c>
       <c r="P20" t="n">
-        <v>83.23</v>
+        <v>88.79000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1437,46 +1437,46 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>39.12</v>
+        <v>43.02</v>
       </c>
       <c r="D21" t="n">
-        <v>705.14</v>
+        <v>639.67</v>
       </c>
       <c r="E21" t="n">
-        <v>12.98</v>
+        <v>12.03</v>
       </c>
       <c r="F21" t="n">
-        <v>14.35</v>
+        <v>19.45</v>
       </c>
       <c r="G21" t="n">
-        <v>1004.77</v>
+        <v>1138.34</v>
       </c>
       <c r="H21" t="n">
-        <v>363.09</v>
+        <v>408.47</v>
       </c>
       <c r="I21" t="n">
-        <v>5796.38</v>
+        <v>5408.33</v>
       </c>
       <c r="J21" t="n">
-        <v>28942.4</v>
+        <v>23096.53</v>
       </c>
       <c r="K21" t="n">
-        <v>354.45</v>
+        <v>488.57</v>
       </c>
       <c r="L21" t="n">
-        <v>463.87</v>
+        <v>414.93</v>
       </c>
       <c r="M21" t="n">
-        <v>8692.299999999999</v>
+        <v>8899.43</v>
       </c>
       <c r="N21" t="n">
-        <v>279.96</v>
+        <v>370.16</v>
       </c>
       <c r="O21" t="n">
-        <v>4347.31</v>
+        <v>4590.58</v>
       </c>
       <c r="P21" t="n">
-        <v>91.5</v>
+        <v>107.26</v>
       </c>
     </row>
     <row r="22">
@@ -1491,46 +1491,46 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13.17</v>
+        <v>12.78</v>
       </c>
       <c r="D22" t="n">
-        <v>460.56</v>
+        <v>439.07</v>
       </c>
       <c r="E22" t="n">
-        <v>145.51</v>
+        <v>145.03</v>
       </c>
       <c r="F22" t="n">
-        <v>30.7</v>
+        <v>27.61</v>
       </c>
       <c r="G22" t="n">
-        <v>489.99</v>
+        <v>555.36</v>
       </c>
       <c r="H22" t="n">
-        <v>344.18</v>
+        <v>328.65</v>
       </c>
       <c r="I22" t="n">
-        <v>36.86</v>
+        <v>44.41</v>
       </c>
       <c r="J22" t="n">
-        <v>19213.21</v>
+        <v>19746.96</v>
       </c>
       <c r="K22" t="n">
-        <v>272.91</v>
+        <v>218.53</v>
       </c>
       <c r="L22" t="n">
-        <v>216.27</v>
+        <v>180.17</v>
       </c>
       <c r="M22" t="n">
-        <v>3333.22</v>
+        <v>3417.84</v>
       </c>
       <c r="N22" t="n">
-        <v>129.22</v>
+        <v>175.87</v>
       </c>
       <c r="O22" t="n">
-        <v>1682.51</v>
+        <v>1996.67</v>
       </c>
       <c r="P22" t="n">
-        <v>83.45999999999999</v>
+        <v>93.63</v>
       </c>
     </row>
     <row r="23">
@@ -1545,46 +1545,46 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="D23" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="E23" t="n">
-        <v>10.34</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>136.59</v>
+        <v>138.63</v>
       </c>
       <c r="H23" t="n">
-        <v>180.23</v>
+        <v>168.82</v>
       </c>
       <c r="I23" t="n">
-        <v>19.65</v>
+        <v>19.16</v>
       </c>
       <c r="J23" t="n">
-        <v>12056.31</v>
+        <v>15037.55</v>
       </c>
       <c r="K23" t="n">
-        <v>137.76</v>
+        <v>115.26</v>
       </c>
       <c r="L23" t="n">
-        <v>52.75</v>
+        <v>58.89</v>
       </c>
       <c r="M23" t="n">
-        <v>1546.95</v>
+        <v>1738.19</v>
       </c>
       <c r="N23" t="n">
-        <v>201.33</v>
+        <v>245.96</v>
       </c>
       <c r="O23" t="n">
-        <v>1216.5</v>
+        <v>1177.96</v>
       </c>
       <c r="P23" t="n">
-        <v>106.94</v>
+        <v>113.17</v>
       </c>
     </row>
     <row r="24">
@@ -1599,46 +1599,46 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.01</v>
+        <v>30.75</v>
       </c>
       <c r="D24" t="n">
-        <v>78.89</v>
+        <v>67.55</v>
       </c>
       <c r="E24" t="n">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="F24" t="n">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="G24" t="n">
-        <v>106.26</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>108.11</v>
+        <v>86.3</v>
       </c>
       <c r="I24" t="n">
-        <v>17.05</v>
+        <v>17.48</v>
       </c>
       <c r="J24" t="n">
-        <v>10397.15</v>
+        <v>10215.32</v>
       </c>
       <c r="K24" t="n">
-        <v>85.38</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>44.58</v>
+        <v>43.77</v>
       </c>
       <c r="M24" t="n">
-        <v>4223.08</v>
+        <v>3191.16</v>
       </c>
       <c r="N24" t="n">
-        <v>40.02</v>
+        <v>36.13</v>
       </c>
       <c r="O24" t="n">
-        <v>1381.62</v>
+        <v>1530.78</v>
       </c>
       <c r="P24" t="n">
-        <v>111.84</v>
+        <v>105.07</v>
       </c>
     </row>
     <row r="25">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="D25" t="n">
-        <v>36.01</v>
+        <v>36.28</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1665,34 +1665,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.57</v>
+        <v>43.15</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18123.74</v>
+        <v>21771.05</v>
       </c>
       <c r="K25" t="n">
-        <v>23.73</v>
+        <v>28.45</v>
       </c>
       <c r="L25" t="n">
-        <v>172.79</v>
+        <v>152.52</v>
       </c>
       <c r="M25" t="n">
-        <v>525.86</v>
+        <v>476.7</v>
       </c>
       <c r="N25" t="n">
-        <v>154.03</v>
+        <v>144.97</v>
       </c>
       <c r="O25" t="n">
-        <v>1166.09</v>
+        <v>1276.03</v>
       </c>
       <c r="P25" t="n">
-        <v>80.76000000000001</v>
+        <v>100.42</v>
       </c>
     </row>
     <row r="26">
@@ -1710,43 +1710,43 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>55.88</v>
+        <v>46.45</v>
       </c>
       <c r="E26" t="n">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="G26" t="n">
-        <v>154.28</v>
+        <v>146.74</v>
       </c>
       <c r="H26" t="n">
-        <v>62.76</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="J26" t="n">
-        <v>34628.7</v>
+        <v>38781.27</v>
       </c>
       <c r="K26" t="n">
-        <v>49.88</v>
+        <v>60.25</v>
       </c>
       <c r="L26" t="n">
-        <v>14.52</v>
+        <v>15.79</v>
       </c>
       <c r="M26" t="n">
-        <v>8939.280000000001</v>
+        <v>7150.82</v>
       </c>
       <c r="N26" t="n">
-        <v>131.79</v>
+        <v>132.68</v>
       </c>
       <c r="O26" t="n">
-        <v>1477.02</v>
+        <v>1104.3</v>
       </c>
       <c r="P26" t="n">
-        <v>104.44</v>
+        <v>105.08</v>
       </c>
     </row>
     <row r="27">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>19.39</v>
+        <v>15.28</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1773,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34.33</v>
+        <v>39.98</v>
       </c>
       <c r="H27" t="n">
-        <v>29.8</v>
+        <v>29.26</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="J27" t="n">
-        <v>1845.47</v>
+        <v>1721.1</v>
       </c>
       <c r="K27" t="n">
-        <v>43.14</v>
+        <v>42.39</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28</v>
+        <v>49.68</v>
       </c>
       <c r="M27" t="n">
-        <v>480.22</v>
+        <v>468.07</v>
       </c>
       <c r="N27" t="n">
-        <v>11.49</v>
+        <v>8.4</v>
       </c>
       <c r="O27" t="n">
-        <v>471.03</v>
+        <v>651.6900000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>103.27</v>
+        <v>95.41</v>
       </c>
     </row>
     <row r="28">
@@ -1815,46 +1815,46 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.13</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>764.73</v>
+        <v>695.24</v>
       </c>
       <c r="E28" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="F28" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="n">
-        <v>614.21</v>
+        <v>580.13</v>
       </c>
       <c r="H28" t="n">
-        <v>147.95</v>
+        <v>133.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
-        <v>24611.5</v>
+        <v>22058.04</v>
       </c>
       <c r="K28" t="n">
-        <v>173.68</v>
+        <v>131.25</v>
       </c>
       <c r="L28" t="n">
-        <v>88.05</v>
+        <v>95.66</v>
       </c>
       <c r="M28" t="n">
-        <v>4839.87</v>
+        <v>5361.25</v>
       </c>
       <c r="N28" t="n">
-        <v>48.12</v>
+        <v>48.77</v>
       </c>
       <c r="O28" t="n">
-        <v>1643.05</v>
+        <v>1569.94</v>
       </c>
       <c r="P28" t="n">
-        <v>103.88</v>
+        <v>74.63</v>
       </c>
     </row>
     <row r="29">
@@ -1869,46 +1869,46 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46.21</v>
+        <v>36.34</v>
       </c>
       <c r="D29" t="n">
-        <v>222.89</v>
+        <v>200.09</v>
       </c>
       <c r="E29" t="n">
-        <v>4.7</v>
+        <v>4.28</v>
       </c>
       <c r="F29" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="G29" t="n">
-        <v>308.12</v>
+        <v>311.94</v>
       </c>
       <c r="H29" t="n">
-        <v>344.4</v>
+        <v>284.49</v>
       </c>
       <c r="I29" t="n">
-        <v>8.779999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>12570.68</v>
+        <v>12458.71</v>
       </c>
       <c r="K29" t="n">
-        <v>137.41</v>
+        <v>146</v>
       </c>
       <c r="L29" t="n">
-        <v>71.76000000000001</v>
+        <v>62.21</v>
       </c>
       <c r="M29" t="n">
-        <v>4543.61</v>
+        <v>5114.99</v>
       </c>
       <c r="N29" t="n">
-        <v>67.43000000000001</v>
+        <v>50.69</v>
       </c>
       <c r="O29" t="n">
-        <v>2093.47</v>
+        <v>1617.23</v>
       </c>
       <c r="P29" t="n">
-        <v>100.18</v>
+        <v>112.29</v>
       </c>
     </row>
     <row r="30">
@@ -1923,46 +1923,46 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20.77</v>
+        <v>16.01</v>
       </c>
       <c r="D30" t="n">
-        <v>220.31</v>
+        <v>290.45</v>
       </c>
       <c r="E30" t="n">
-        <v>77.23999999999999</v>
+        <v>81.44</v>
       </c>
       <c r="F30" t="n">
-        <v>23.67</v>
+        <v>17.02</v>
       </c>
       <c r="G30" t="n">
-        <v>693.59</v>
+        <v>791.33</v>
       </c>
       <c r="H30" t="n">
-        <v>637.17</v>
+        <v>732.23</v>
       </c>
       <c r="I30" t="n">
-        <v>372.35</v>
+        <v>391.04</v>
       </c>
       <c r="J30" t="n">
-        <v>31235.57</v>
+        <v>36734.59</v>
       </c>
       <c r="K30" t="n">
-        <v>392.94</v>
+        <v>305.43</v>
       </c>
       <c r="L30" t="n">
-        <v>177.52</v>
+        <v>216.84</v>
       </c>
       <c r="M30" t="n">
-        <v>5723.71</v>
+        <v>4802.29</v>
       </c>
       <c r="N30" t="n">
-        <v>106.53</v>
+        <v>120.04</v>
       </c>
       <c r="O30" t="n">
-        <v>3895.12</v>
+        <v>4111.01</v>
       </c>
       <c r="P30" t="n">
-        <v>110.01</v>
+        <v>86.93000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1977,46 +1977,46 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.18</v>
+        <v>6.54</v>
       </c>
       <c r="D31" t="n">
-        <v>179.21</v>
+        <v>232.09</v>
       </c>
       <c r="E31" t="n">
-        <v>5.36</v>
+        <v>4.37</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>462.69</v>
+        <v>466.48</v>
       </c>
       <c r="H31" t="n">
-        <v>264.66</v>
+        <v>201.12</v>
       </c>
       <c r="I31" t="n">
-        <v>9.08</v>
+        <v>9.5</v>
       </c>
       <c r="J31" t="n">
-        <v>22862</v>
+        <v>21923.43</v>
       </c>
       <c r="K31" t="n">
-        <v>235.02</v>
+        <v>219.94</v>
       </c>
       <c r="L31" t="n">
-        <v>68.72</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>5183.63</v>
+        <v>5619.61</v>
       </c>
       <c r="N31" t="n">
-        <v>89.75</v>
+        <v>69.56</v>
       </c>
       <c r="O31" t="n">
-        <v>1935.83</v>
+        <v>2437.47</v>
       </c>
       <c r="P31" t="n">
-        <v>84.34</v>
+        <v>118.52</v>
       </c>
     </row>
     <row r="32">
@@ -2031,46 +2031,46 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="D32" t="n">
-        <v>30.01</v>
+        <v>32.13</v>
       </c>
       <c r="E32" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>87.68000000000001</v>
+        <v>106.84</v>
       </c>
       <c r="H32" t="n">
-        <v>20.72</v>
+        <v>19.25</v>
       </c>
       <c r="I32" t="n">
-        <v>11.45</v>
+        <v>9.35</v>
       </c>
       <c r="J32" t="n">
-        <v>8303.65</v>
+        <v>7195.93</v>
       </c>
       <c r="K32" t="n">
-        <v>64.38</v>
+        <v>62.36</v>
       </c>
       <c r="L32" t="n">
-        <v>22.56</v>
+        <v>17.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1039.71</v>
+        <v>986.13</v>
       </c>
       <c r="N32" t="n">
-        <v>100.03</v>
+        <v>119.95</v>
       </c>
       <c r="O32" t="n">
-        <v>816.64</v>
+        <v>786.99</v>
       </c>
       <c r="P32" t="n">
-        <v>110.66</v>
+        <v>102.43</v>
       </c>
     </row>
     <row r="33">
@@ -2085,46 +2085,46 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61.97</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>517.27</v>
+        <v>372.33</v>
       </c>
       <c r="E33" t="n">
-        <v>66.28</v>
+        <v>60.73</v>
       </c>
       <c r="F33" t="n">
-        <v>23.63</v>
+        <v>30.76</v>
       </c>
       <c r="G33" t="n">
-        <v>817.71</v>
+        <v>1002.94</v>
       </c>
       <c r="H33" t="n">
-        <v>318.69</v>
+        <v>419.59</v>
       </c>
       <c r="I33" t="n">
-        <v>69.45999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>22855.22</v>
+        <v>24503.75</v>
       </c>
       <c r="K33" t="n">
-        <v>564.5599999999999</v>
+        <v>567.73</v>
       </c>
       <c r="L33" t="n">
-        <v>480.43</v>
+        <v>413.19</v>
       </c>
       <c r="M33" t="n">
-        <v>4796.51</v>
+        <v>4299.24</v>
       </c>
       <c r="N33" t="n">
-        <v>96.11</v>
+        <v>124.39</v>
       </c>
       <c r="O33" t="n">
-        <v>2147.43</v>
+        <v>2073.74</v>
       </c>
       <c r="P33" t="n">
-        <v>86.76000000000001</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="34">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="D34" t="n">
-        <v>59.59</v>
+        <v>60.02</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2151,34 +2151,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>48.49</v>
+        <v>58.01</v>
       </c>
       <c r="H34" t="n">
-        <v>63.43</v>
+        <v>58.65</v>
       </c>
       <c r="I34" t="n">
-        <v>13.44</v>
+        <v>17.77</v>
       </c>
       <c r="J34" t="n">
-        <v>1536.95</v>
+        <v>1272.1</v>
       </c>
       <c r="K34" t="n">
-        <v>61.03</v>
+        <v>53.47</v>
       </c>
       <c r="L34" t="n">
-        <v>30.02</v>
+        <v>35.16</v>
       </c>
       <c r="M34" t="n">
-        <v>224.9</v>
+        <v>232.6</v>
       </c>
       <c r="N34" t="n">
-        <v>14.07</v>
+        <v>14.21</v>
       </c>
       <c r="O34" t="n">
-        <v>863.39</v>
+        <v>661.47</v>
       </c>
       <c r="P34" t="n">
-        <v>91.45999999999999</v>
+        <v>86.23999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.24</v>
+        <v>1.84</v>
       </c>
       <c r="D35" t="n">
-        <v>134.37</v>
+        <v>108.62</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.66</v>
+        <v>74.5</v>
       </c>
       <c r="H35" t="n">
-        <v>130.1</v>
+        <v>103.46</v>
       </c>
       <c r="I35" t="n">
-        <v>2.31</v>
+        <v>1.69</v>
       </c>
       <c r="J35" t="n">
-        <v>11084.24</v>
+        <v>11957.66</v>
       </c>
       <c r="K35" t="n">
-        <v>99.56</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>22.46</v>
+        <v>29.45</v>
       </c>
       <c r="M35" t="n">
-        <v>2972.54</v>
+        <v>3574</v>
       </c>
       <c r="N35" t="n">
-        <v>12.32</v>
+        <v>15.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1054.58</v>
+        <v>1114.76</v>
       </c>
       <c r="P35" t="n">
-        <v>85.19</v>
+        <v>105.81</v>
       </c>
     </row>
     <row r="36">
@@ -2250,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>119.22</v>
+        <v>113.08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>24.81</v>
+        <v>22.19</v>
       </c>
       <c r="G36" t="n">
-        <v>1543.19</v>
+        <v>1761.99</v>
       </c>
       <c r="H36" t="n">
-        <v>19.64</v>
+        <v>14.39</v>
       </c>
       <c r="I36" t="n">
-        <v>5.84</v>
+        <v>5.04</v>
       </c>
       <c r="J36" t="n">
-        <v>12956.22</v>
+        <v>11570.1</v>
       </c>
       <c r="K36" t="n">
-        <v>4753.98</v>
+        <v>5294.57</v>
       </c>
       <c r="L36" t="n">
-        <v>134.92</v>
+        <v>158.71</v>
       </c>
       <c r="M36" t="n">
-        <v>3063.75</v>
+        <v>3173.92</v>
       </c>
       <c r="N36" t="n">
-        <v>66.59</v>
+        <v>63.08</v>
       </c>
       <c r="O36" t="n">
-        <v>663.17</v>
+        <v>842.75</v>
       </c>
       <c r="P36" t="n">
-        <v>83.91</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="37">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>17.58</v>
+        <v>16.79</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2313,34 +2313,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.82</v>
+        <v>35.94</v>
       </c>
       <c r="H37" t="n">
-        <v>30.89</v>
+        <v>22.48</v>
       </c>
       <c r="I37" t="n">
-        <v>11.67</v>
+        <v>10.52</v>
       </c>
       <c r="J37" t="n">
-        <v>2123.64</v>
+        <v>1978.68</v>
       </c>
       <c r="K37" t="n">
-        <v>33.82</v>
+        <v>37.6</v>
       </c>
       <c r="L37" t="n">
-        <v>25.45</v>
+        <v>21.21</v>
       </c>
       <c r="M37" t="n">
-        <v>495.13</v>
+        <v>513.95</v>
       </c>
       <c r="N37" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="O37" t="n">
-        <v>514.1</v>
+        <v>464.92</v>
       </c>
       <c r="P37" t="n">
-        <v>95.14</v>
+        <v>116.79</v>
       </c>
     </row>
     <row r="38">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.39</v>
+        <v>2.09</v>
       </c>
       <c r="D38" t="n">
-        <v>87.05</v>
+        <v>113.96</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2367,34 +2367,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>158.07</v>
+        <v>201.07</v>
       </c>
       <c r="H38" t="n">
-        <v>82.36</v>
+        <v>112.68</v>
       </c>
       <c r="I38" t="n">
-        <v>2.69</v>
+        <v>3.53</v>
       </c>
       <c r="J38" t="n">
-        <v>6974.06</v>
+        <v>6237.23</v>
       </c>
       <c r="K38" t="n">
-        <v>112.65</v>
+        <v>117.15</v>
       </c>
       <c r="L38" t="n">
-        <v>53.95</v>
+        <v>40.14</v>
       </c>
       <c r="M38" t="n">
-        <v>1833.01</v>
+        <v>1695.35</v>
       </c>
       <c r="N38" t="n">
-        <v>55.3</v>
+        <v>50.58</v>
       </c>
       <c r="O38" t="n">
-        <v>2926.65</v>
+        <v>3054.98</v>
       </c>
       <c r="P38" t="n">
-        <v>99.06999999999999</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="39">
@@ -2409,46 +2409,46 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="D39" t="n">
-        <v>168.1</v>
+        <v>154.45</v>
       </c>
       <c r="E39" t="n">
-        <v>9.59</v>
+        <v>10.37</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>84.37</v>
+        <v>76.14</v>
       </c>
       <c r="H39" t="n">
-        <v>69.16</v>
+        <v>80.7</v>
       </c>
       <c r="I39" t="n">
-        <v>7.64</v>
+        <v>7.22</v>
       </c>
       <c r="J39" t="n">
-        <v>9794.620000000001</v>
+        <v>8999.610000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>309.18</v>
+        <v>285.31</v>
       </c>
       <c r="L39" t="n">
-        <v>23.92</v>
+        <v>28.32</v>
       </c>
       <c r="M39" t="n">
-        <v>1216.76</v>
+        <v>1306.84</v>
       </c>
       <c r="N39" t="n">
-        <v>44.21</v>
+        <v>48.66</v>
       </c>
       <c r="O39" t="n">
-        <v>963.38</v>
+        <v>995.03</v>
       </c>
       <c r="P39" t="n">
-        <v>107.77</v>
+        <v>84.61</v>
       </c>
     </row>
     <row r="40">
@@ -2463,46 +2463,46 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20.35</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>347.38</v>
+        <v>320.19</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G40" t="n">
-        <v>234.07</v>
+        <v>306.69</v>
       </c>
       <c r="H40" t="n">
-        <v>201.76</v>
+        <v>220.03</v>
       </c>
       <c r="I40" t="n">
-        <v>10.56</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>15805.03</v>
+        <v>16228.17</v>
       </c>
       <c r="K40" t="n">
-        <v>261.51</v>
+        <v>339.68</v>
       </c>
       <c r="L40" t="n">
-        <v>123.41</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="M40" t="n">
-        <v>2977.75</v>
+        <v>4136.94</v>
       </c>
       <c r="N40" t="n">
-        <v>178.03</v>
+        <v>186.8</v>
       </c>
       <c r="O40" t="n">
-        <v>4275.16</v>
+        <v>4463.72</v>
       </c>
       <c r="P40" t="n">
-        <v>97.56</v>
+        <v>105.36</v>
       </c>
     </row>
     <row r="41">
@@ -2517,46 +2517,46 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>60.01</v>
+        <v>46.23</v>
       </c>
       <c r="D41" t="n">
-        <v>89.83</v>
+        <v>118.95</v>
       </c>
       <c r="E41" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>41.87</v>
+        <v>43.51</v>
       </c>
       <c r="H41" t="n">
-        <v>37.61</v>
+        <v>38.25</v>
       </c>
       <c r="I41" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="J41" t="n">
-        <v>40695.3</v>
+        <v>45994.64</v>
       </c>
       <c r="K41" t="n">
-        <v>323.15</v>
+        <v>317.3</v>
       </c>
       <c r="L41" t="n">
-        <v>246.21</v>
+        <v>310.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1316.29</v>
+        <v>1422.24</v>
       </c>
       <c r="N41" t="n">
-        <v>153.84</v>
+        <v>140.89</v>
       </c>
       <c r="O41" t="n">
-        <v>2675.95</v>
+        <v>2734.91</v>
       </c>
       <c r="P41" t="n">
-        <v>84.20999999999999</v>
+        <v>81.33</v>
       </c>
     </row>
     <row r="42">
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>10.56</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2583,34 +2583,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>18.87</v>
+        <v>18.73</v>
       </c>
       <c r="H42" t="n">
-        <v>24.61</v>
+        <v>24.52</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>731</v>
+        <v>705.85</v>
       </c>
       <c r="K42" t="n">
-        <v>18.67</v>
+        <v>18.7</v>
       </c>
       <c r="L42" t="n">
-        <v>24.71</v>
+        <v>21.57</v>
       </c>
       <c r="M42" t="n">
-        <v>207.6</v>
+        <v>226.64</v>
       </c>
       <c r="N42" t="n">
-        <v>11.71</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>468.06</v>
+        <v>559.9</v>
       </c>
       <c r="P42" t="n">
-        <v>92.62</v>
+        <v>108.47</v>
       </c>
     </row>
     <row r="43">
@@ -2625,46 +2625,46 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.390000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="D43" t="n">
-        <v>638.99</v>
+        <v>534.51</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.18</v>
+        <v>0.86</v>
       </c>
       <c r="G43" t="n">
-        <v>649.61</v>
+        <v>644.5700000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>302.15</v>
+        <v>292.56</v>
       </c>
       <c r="I43" t="n">
-        <v>3.55</v>
+        <v>3.39</v>
       </c>
       <c r="J43" t="n">
-        <v>33946.07</v>
+        <v>31636.29</v>
       </c>
       <c r="K43" t="n">
-        <v>642.5599999999999</v>
+        <v>652.09</v>
       </c>
       <c r="L43" t="n">
-        <v>181.87</v>
+        <v>222.85</v>
       </c>
       <c r="M43" t="n">
-        <v>5122</v>
+        <v>6133.86</v>
       </c>
       <c r="N43" t="n">
-        <v>204.21</v>
+        <v>146.56</v>
       </c>
       <c r="O43" t="n">
-        <v>3477.87</v>
+        <v>3184.14</v>
       </c>
       <c r="P43" t="n">
-        <v>83.97</v>
+        <v>94.18000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2679,46 +2679,46 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.61</v>
+        <v>8.9</v>
       </c>
       <c r="D44" t="n">
-        <v>197.11</v>
+        <v>160.53</v>
       </c>
       <c r="E44" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="G44" t="n">
-        <v>530.6</v>
+        <v>653.24</v>
       </c>
       <c r="H44" t="n">
-        <v>93.48999999999999</v>
+        <v>88.72</v>
       </c>
       <c r="I44" t="n">
-        <v>22.78</v>
+        <v>20.66</v>
       </c>
       <c r="J44" t="n">
-        <v>13907.19</v>
+        <v>11342.61</v>
       </c>
       <c r="K44" t="n">
-        <v>207.07</v>
+        <v>204.2</v>
       </c>
       <c r="L44" t="n">
-        <v>91.81999999999999</v>
+        <v>80.06</v>
       </c>
       <c r="M44" t="n">
-        <v>3296.39</v>
+        <v>3006.64</v>
       </c>
       <c r="N44" t="n">
-        <v>231.32</v>
+        <v>210.48</v>
       </c>
       <c r="O44" t="n">
-        <v>1897.76</v>
+        <v>1725.68</v>
       </c>
       <c r="P44" t="n">
-        <v>89.90000000000001</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="45">
@@ -2733,46 +2733,46 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.29</v>
+        <v>15.06</v>
       </c>
       <c r="D45" t="n">
-        <v>69.54000000000001</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>370.73</v>
+        <v>437.91</v>
       </c>
       <c r="H45" t="n">
-        <v>47.15</v>
+        <v>49.52</v>
       </c>
       <c r="I45" t="n">
-        <v>9.880000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="J45" t="n">
-        <v>13694.02</v>
+        <v>18298.24</v>
       </c>
       <c r="K45" t="n">
-        <v>86.22</v>
+        <v>68.72</v>
       </c>
       <c r="L45" t="n">
-        <v>29.61</v>
+        <v>27.14</v>
       </c>
       <c r="M45" t="n">
-        <v>3642.42</v>
+        <v>3744.21</v>
       </c>
       <c r="N45" t="n">
-        <v>96.03</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>1517.52</v>
+        <v>1109.65</v>
       </c>
       <c r="P45" t="n">
-        <v>84.54000000000001</v>
+        <v>89.81</v>
       </c>
     </row>
     <row r="46">
@@ -2787,46 +2787,46 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27.62</v>
+        <v>22.97</v>
       </c>
       <c r="D46" t="n">
-        <v>251.85</v>
+        <v>305.43</v>
       </c>
       <c r="E46" t="n">
-        <v>35.66</v>
+        <v>33.99</v>
       </c>
       <c r="F46" t="n">
-        <v>15.89</v>
+        <v>17.45</v>
       </c>
       <c r="G46" t="n">
-        <v>336.86</v>
+        <v>313.1</v>
       </c>
       <c r="H46" t="n">
-        <v>433.52</v>
+        <v>370.41</v>
       </c>
       <c r="I46" t="n">
-        <v>25.22</v>
+        <v>26.05</v>
       </c>
       <c r="J46" t="n">
-        <v>13313.16</v>
+        <v>16587.41</v>
       </c>
       <c r="K46" t="n">
-        <v>256.49</v>
+        <v>216.61</v>
       </c>
       <c r="L46" t="n">
-        <v>214.89</v>
+        <v>263.15</v>
       </c>
       <c r="M46" t="n">
-        <v>3509.93</v>
+        <v>3362.44</v>
       </c>
       <c r="N46" t="n">
-        <v>124.71</v>
+        <v>114.35</v>
       </c>
       <c r="O46" t="n">
-        <v>2749.69</v>
+        <v>2957.12</v>
       </c>
       <c r="P46" t="n">
-        <v>103.16</v>
+        <v>111.71</v>
       </c>
     </row>
     <row r="47">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.27</v>
+        <v>2.65</v>
       </c>
       <c r="D47" t="n">
-        <v>114.26</v>
+        <v>112.34</v>
       </c>
       <c r="E47" t="n">
-        <v>5.1</v>
+        <v>4.91</v>
       </c>
       <c r="F47" t="n">
-        <v>6.44</v>
+        <v>6.36</v>
       </c>
       <c r="G47" t="n">
-        <v>140.75</v>
+        <v>133.1</v>
       </c>
       <c r="H47" t="n">
-        <v>174.46</v>
+        <v>165.04</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2746.58</v>
+        <v>2659.15</v>
       </c>
       <c r="K47" t="n">
-        <v>297.16</v>
+        <v>244.31</v>
       </c>
       <c r="L47" t="n">
-        <v>29.01</v>
+        <v>30.52</v>
       </c>
       <c r="M47" t="n">
-        <v>971.55</v>
+        <v>751.6799999999999</v>
       </c>
       <c r="N47" t="n">
-        <v>21.96</v>
+        <v>19.48</v>
       </c>
       <c r="O47" t="n">
-        <v>269.61</v>
+        <v>344.91</v>
       </c>
       <c r="P47" t="n">
-        <v>119.76</v>
+        <v>85.78</v>
       </c>
     </row>
     <row r="48">
@@ -2895,46 +2895,46 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6.86</v>
+        <v>5.71</v>
       </c>
       <c r="D48" t="n">
-        <v>240.55</v>
+        <v>283.76</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3.27</v>
+        <v>2.56</v>
       </c>
       <c r="G48" t="n">
-        <v>269.58</v>
+        <v>203.57</v>
       </c>
       <c r="H48" t="n">
-        <v>177.22</v>
+        <v>178.6</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>11493.75</v>
+        <v>12712.64</v>
       </c>
       <c r="K48" t="n">
-        <v>126.95</v>
+        <v>149.07</v>
       </c>
       <c r="L48" t="n">
-        <v>69.04000000000001</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>7900.8</v>
+        <v>6621.33</v>
       </c>
       <c r="N48" t="n">
-        <v>86.73999999999999</v>
+        <v>102.35</v>
       </c>
       <c r="O48" t="n">
-        <v>1000.51</v>
+        <v>1320.68</v>
       </c>
       <c r="P48" t="n">
-        <v>83</v>
+        <v>105.11</v>
       </c>
     </row>
     <row r="49">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2961,34 +2961,34 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>14.22</v>
+        <v>11.86</v>
       </c>
       <c r="H49" t="n">
-        <v>7.96</v>
+        <v>9.68</v>
       </c>
       <c r="I49" t="n">
-        <v>6.94</v>
+        <v>7.18</v>
       </c>
       <c r="J49" t="n">
-        <v>1848.66</v>
+        <v>1831.29</v>
       </c>
       <c r="K49" t="n">
-        <v>39.49</v>
+        <v>28.83</v>
       </c>
       <c r="L49" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>2794.98</v>
+        <v>3093.47</v>
       </c>
       <c r="N49" t="n">
-        <v>15.61</v>
+        <v>12.38</v>
       </c>
       <c r="O49" t="n">
-        <v>681.83</v>
+        <v>752.88</v>
       </c>
       <c r="P49" t="n">
-        <v>111.93</v>
+        <v>118.91</v>
       </c>
     </row>
     <row r="50">
@@ -3003,46 +3003,46 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.63</v>
+        <v>4.62</v>
       </c>
       <c r="D50" t="n">
-        <v>134.43</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>13.13</v>
+        <v>11.39</v>
       </c>
       <c r="F50" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="n">
-        <v>359.16</v>
+        <v>336.07</v>
       </c>
       <c r="H50" t="n">
-        <v>258.66</v>
+        <v>186.11</v>
       </c>
       <c r="I50" t="n">
-        <v>20.4</v>
+        <v>20.81</v>
       </c>
       <c r="J50" t="n">
-        <v>9889.559999999999</v>
+        <v>9615.629999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>291.19</v>
+        <v>317.32</v>
       </c>
       <c r="L50" t="n">
-        <v>166.52</v>
+        <v>137.8</v>
       </c>
       <c r="M50" t="n">
-        <v>1887.24</v>
+        <v>2315.64</v>
       </c>
       <c r="N50" t="n">
-        <v>92.8</v>
+        <v>100.84</v>
       </c>
       <c r="O50" t="n">
-        <v>1425.3</v>
+        <v>2028.12</v>
       </c>
       <c r="P50" t="n">
-        <v>92.91</v>
+        <v>115.23</v>
       </c>
     </row>
     <row r="51">
@@ -3057,46 +3057,46 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23.62</v>
+        <v>20.45</v>
       </c>
       <c r="D51" t="n">
-        <v>222.23</v>
+        <v>267.76</v>
       </c>
       <c r="E51" t="n">
-        <v>32.49</v>
+        <v>31.79</v>
       </c>
       <c r="F51" t="n">
-        <v>8.710000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G51" t="n">
-        <v>683.01</v>
+        <v>901.11</v>
       </c>
       <c r="H51" t="n">
-        <v>395.9</v>
+        <v>338.31</v>
       </c>
       <c r="I51" t="n">
-        <v>23.75</v>
+        <v>21.84</v>
       </c>
       <c r="J51" t="n">
-        <v>60173.44</v>
+        <v>60960.72</v>
       </c>
       <c r="K51" t="n">
-        <v>482.31</v>
+        <v>637.61</v>
       </c>
       <c r="L51" t="n">
-        <v>486.27</v>
+        <v>551.47</v>
       </c>
       <c r="M51" t="n">
-        <v>8045.01</v>
+        <v>7210.61</v>
       </c>
       <c r="N51" t="n">
-        <v>228.3</v>
+        <v>245.63</v>
       </c>
       <c r="O51" t="n">
-        <v>7593.9</v>
+        <v>9184.84</v>
       </c>
       <c r="P51" t="n">
-        <v>86.64</v>
+        <v>109.85</v>
       </c>
     </row>
     <row r="52">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.81</v>
+        <v>6.63</v>
       </c>
       <c r="D52" t="n">
-        <v>409.63</v>
+        <v>415.88</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>230.9</v>
+        <v>176.79</v>
       </c>
       <c r="H52" t="n">
-        <v>124.87</v>
+        <v>119.61</v>
       </c>
       <c r="I52" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="J52" t="n">
-        <v>4415.8</v>
+        <v>5308.49</v>
       </c>
       <c r="K52" t="n">
-        <v>114.79</v>
+        <v>127.51</v>
       </c>
       <c r="L52" t="n">
-        <v>32.49</v>
+        <v>36.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1136.18</v>
+        <v>1413.64</v>
       </c>
       <c r="N52" t="n">
-        <v>161.31</v>
+        <v>170.46</v>
       </c>
       <c r="O52" t="n">
-        <v>902.45</v>
+        <v>877.12</v>
       </c>
       <c r="P52" t="n">
-        <v>86.17</v>
+        <v>101.36</v>
       </c>
     </row>
     <row r="53">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>16.78</v>
+        <v>21.04</v>
       </c>
       <c r="H53" t="n">
-        <v>55.99</v>
+        <v>60.71</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1070.84</v>
+        <v>1042.96</v>
       </c>
       <c r="K53" t="n">
-        <v>32.53</v>
+        <v>24.33</v>
       </c>
       <c r="L53" t="n">
-        <v>24.54</v>
+        <v>24.08</v>
       </c>
       <c r="M53" t="n">
-        <v>447.26</v>
+        <v>391.87</v>
       </c>
       <c r="N53" t="n">
-        <v>11.82</v>
+        <v>14.05</v>
       </c>
       <c r="O53" t="n">
-        <v>286.61</v>
+        <v>332.06</v>
       </c>
       <c r="P53" t="n">
-        <v>117.64</v>
+        <v>80.45999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3219,46 +3219,46 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18.34</v>
+        <v>16.33</v>
       </c>
       <c r="D54" t="n">
-        <v>590.67</v>
+        <v>446.7</v>
       </c>
       <c r="E54" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>651.78</v>
+        <v>544.02</v>
       </c>
       <c r="H54" t="n">
-        <v>93.79000000000001</v>
+        <v>88.77</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>22096.61</v>
+        <v>22338.54</v>
       </c>
       <c r="K54" t="n">
-        <v>114.66</v>
+        <v>96.59</v>
       </c>
       <c r="L54" t="n">
-        <v>87.3</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>6253.55</v>
+        <v>5428.18</v>
       </c>
       <c r="N54" t="n">
-        <v>107.56</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>1832.19</v>
+        <v>2061.7</v>
       </c>
       <c r="P54" t="n">
-        <v>91.25</v>
+        <v>105.95</v>
       </c>
     </row>
     <row r="55">
@@ -3273,46 +3273,46 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7.68</v>
+        <v>6.39</v>
       </c>
       <c r="D55" t="n">
-        <v>854.97</v>
+        <v>825.51</v>
       </c>
       <c r="E55" t="n">
-        <v>83.52</v>
+        <v>95.94</v>
       </c>
       <c r="F55" t="n">
-        <v>32.93</v>
+        <v>26.7</v>
       </c>
       <c r="G55" t="n">
-        <v>916.6</v>
+        <v>922.6799999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>452.51</v>
+        <v>516.71</v>
       </c>
       <c r="I55" t="n">
-        <v>26.23</v>
+        <v>17.78</v>
       </c>
       <c r="J55" t="n">
-        <v>21301.54</v>
+        <v>24024.35</v>
       </c>
       <c r="K55" t="n">
-        <v>458.45</v>
+        <v>645.41</v>
       </c>
       <c r="L55" t="n">
-        <v>227.78</v>
+        <v>230.96</v>
       </c>
       <c r="M55" t="n">
-        <v>5286.99</v>
+        <v>5150.67</v>
       </c>
       <c r="N55" t="n">
-        <v>223.37</v>
+        <v>222.29</v>
       </c>
       <c r="O55" t="n">
-        <v>2683.09</v>
+        <v>2421.89</v>
       </c>
       <c r="P55" t="n">
-        <v>83.90000000000001</v>
+        <v>80.45999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>24.48</v>
+        <v>34.74</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3339,34 +3339,34 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>41.61</v>
+        <v>40.24</v>
       </c>
       <c r="H56" t="n">
-        <v>6.12</v>
+        <v>4.83</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>6015.2</v>
+        <v>5653.06</v>
       </c>
       <c r="K56" t="n">
-        <v>50.42</v>
+        <v>68.98</v>
       </c>
       <c r="L56" t="n">
-        <v>45.98</v>
+        <v>51.28</v>
       </c>
       <c r="M56" t="n">
-        <v>1206.32</v>
+        <v>1674.38</v>
       </c>
       <c r="N56" t="n">
-        <v>67.5</v>
+        <v>67.75</v>
       </c>
       <c r="O56" t="n">
-        <v>755.39</v>
+        <v>607.87</v>
       </c>
       <c r="P56" t="n">
-        <v>107.93</v>
+        <v>113.93</v>
       </c>
     </row>
     <row r="57">
@@ -3381,46 +3381,46 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13.99</v>
+        <v>13.75</v>
       </c>
       <c r="D57" t="n">
-        <v>270.19</v>
+        <v>337.63</v>
       </c>
       <c r="E57" t="n">
-        <v>6.31</v>
+        <v>7.62</v>
       </c>
       <c r="F57" t="n">
-        <v>7.55</v>
+        <v>7.18</v>
       </c>
       <c r="G57" t="n">
-        <v>224.69</v>
+        <v>243.43</v>
       </c>
       <c r="H57" t="n">
-        <v>234.58</v>
+        <v>189.59</v>
       </c>
       <c r="I57" t="n">
-        <v>24.67</v>
+        <v>27.45</v>
       </c>
       <c r="J57" t="n">
-        <v>29396.44</v>
+        <v>39757.98</v>
       </c>
       <c r="K57" t="n">
-        <v>416.34</v>
+        <v>425.66</v>
       </c>
       <c r="L57" t="n">
-        <v>142.54</v>
+        <v>142.48</v>
       </c>
       <c r="M57" t="n">
-        <v>7198.26</v>
+        <v>7032.13</v>
       </c>
       <c r="N57" t="n">
-        <v>145.43</v>
+        <v>158.92</v>
       </c>
       <c r="O57" t="n">
-        <v>2624.8</v>
+        <v>2559.61</v>
       </c>
       <c r="P57" t="n">
-        <v>117.11</v>
+        <v>86.37</v>
       </c>
     </row>
     <row r="58">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>19.57</v>
+        <v>17.33</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3447,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>26.48</v>
+        <v>27.53</v>
       </c>
       <c r="H58" t="n">
-        <v>4.97</v>
+        <v>6.53</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3219.87</v>
+        <v>2634.13</v>
       </c>
       <c r="K58" t="n">
-        <v>12.53</v>
+        <v>12.19</v>
       </c>
       <c r="L58" t="n">
-        <v>7.08</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>504.66</v>
+        <v>560.15</v>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="O58" t="n">
-        <v>430.16</v>
+        <v>390.38</v>
       </c>
       <c r="P58" t="n">
-        <v>91.40000000000001</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="59">
@@ -3489,46 +3489,46 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="D59" t="n">
-        <v>10.73</v>
+        <v>10.4</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>21.51</v>
+        <v>21.56</v>
       </c>
       <c r="H59" t="n">
-        <v>4.59</v>
+        <v>4.01</v>
       </c>
       <c r="I59" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="J59" t="n">
-        <v>272.72</v>
+        <v>319.52</v>
       </c>
       <c r="K59" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="L59" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="M59" t="n">
-        <v>89.73999999999999</v>
+        <v>78.69</v>
       </c>
       <c r="N59" t="n">
-        <v>8.98</v>
+        <v>11.01</v>
       </c>
       <c r="O59" t="n">
-        <v>1292.9</v>
+        <v>1195.22</v>
       </c>
       <c r="P59" t="n">
-        <v>106.4</v>
+        <v>113.73</v>
       </c>
     </row>
     <row r="60">
